--- a/capiq_data/in_process_data/IQ31860.xlsx
+++ b/capiq_data/in_process_data/IQ31860.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090CC412-5B7F-4323-A10C-21A7426313B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB81067D-065D-412B-8490-2CFB41D2BCB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"43bcb027-ea52-4fb7-a667-7549411eb938"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c4f548b8-5d33-4dae-bed3-4a44ca203f19"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>81.239000000000004</v>
+        <v>17.236999999999998</v>
       </c>
       <c r="D2">
-        <v>677.97500000000002</v>
+        <v>258.24599999999998</v>
       </c>
       <c r="E2">
-        <v>399.91300000000001</v>
+        <v>139.56800000000001</v>
       </c>
       <c r="F2">
-        <v>231.381</v>
+        <v>66.698999999999998</v>
       </c>
       <c r="G2">
-        <v>974.49199999999996</v>
+        <v>303.10000000000002</v>
       </c>
       <c r="H2">
-        <v>3818.915</v>
+        <v>858.98800000000006</v>
       </c>
       <c r="I2">
-        <v>236.6</v>
+        <v>87.314999999999998</v>
       </c>
       <c r="J2">
-        <v>1071.3599999999999</v>
+        <v>233.61600000000001</v>
       </c>
       <c r="K2">
-        <v>95.903999999999996</v>
+        <v>126.279</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,120 +892,120 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>550.85900000000004</v>
+        <v>297.65499999999997</v>
       </c>
       <c r="O2">
-        <v>2043.711</v>
+        <v>578.15</v>
       </c>
       <c r="P2">
-        <v>1168.5119999999999</v>
+        <v>361.21699999999998</v>
       </c>
       <c r="Q2">
-        <v>28.190999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>11600</v>
+        <v>8100</v>
       </c>
       <c r="T2">
-        <v>1775.204</v>
+        <v>280.83800000000002</v>
       </c>
       <c r="U2">
-        <v>163.208</v>
+        <v>7.1870000000000003</v>
       </c>
       <c r="V2">
-        <v>128.339</v>
+        <v>28.425000000000001</v>
       </c>
       <c r="W2">
-        <v>-9.5510000000000002</v>
+        <v>-1.9339999999999999</v>
       </c>
       <c r="X2">
-        <v>74.426000000000002</v>
+        <v>-17.350000000000001</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-0.61899999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>81.239000000000004</v>
+        <v>17.236999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>90.435000000000002</v>
+        <v>18.271999999999998</v>
       </c>
       <c r="D3">
-        <v>717.78300000000002</v>
+        <v>264.07100000000003</v>
       </c>
       <c r="E3">
-        <v>434.517</v>
+        <v>145.54599999999999</v>
       </c>
       <c r="F3">
-        <v>244.97900000000001</v>
+        <v>68.147000000000006</v>
       </c>
       <c r="G3">
-        <v>1022.826</v>
+        <v>317.90499999999997</v>
       </c>
       <c r="H3">
-        <v>3893.2979999999998</v>
+        <v>869.61699999999996</v>
       </c>
       <c r="I3">
-        <v>261.57900000000001</v>
+        <v>77.563999999999993</v>
       </c>
       <c r="J3">
-        <v>1080.6959999999999</v>
+        <v>232.977</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>130.21799999999999</v>
       </c>
       <c r="L3">
-        <v>-94.498999999999995</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.627</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>491.02300000000002</v>
+        <v>291.137</v>
       </c>
       <c r="O3">
-        <v>2011.079</v>
+        <v>569.702</v>
       </c>
       <c r="P3">
-        <v>1083.348</v>
+        <v>363.19499999999999</v>
       </c>
       <c r="Q3">
-        <v>-8.1989999999999998</v>
+        <v>0.02</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1882.2190000000001</v>
+        <v>299.91500000000002</v>
       </c>
       <c r="U3">
-        <v>155.00899999999999</v>
+        <v>7.2069999999999999</v>
       </c>
       <c r="V3">
-        <v>103.64</v>
+        <v>-0.86299999999999999</v>
       </c>
       <c r="W3">
-        <v>-9.5589999999999993</v>
+        <v>-1.9610000000000001</v>
       </c>
       <c r="X3">
-        <v>-101.399</v>
+        <v>6.5940000000000003</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>90.435000000000002</v>
+        <v>18.271999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>94.144000000000005</v>
+        <v>18.652999999999999</v>
       </c>
       <c r="D4">
-        <v>758.83399999999995</v>
+        <v>261.42200000000003</v>
       </c>
       <c r="E4">
-        <v>439.86500000000001</v>
+        <v>196.67599999999999</v>
       </c>
       <c r="F4">
-        <v>258.87799999999999</v>
+        <v>66.474000000000004</v>
       </c>
       <c r="G4">
-        <v>1083.1320000000001</v>
+        <v>379.25400000000002</v>
       </c>
       <c r="H4">
-        <v>4154.7740000000003</v>
+        <v>953.55</v>
       </c>
       <c r="I4">
-        <v>266.709</v>
+        <v>79.05</v>
       </c>
       <c r="J4">
-        <v>1083.2840000000001</v>
+        <v>231.642</v>
       </c>
       <c r="K4">
-        <v>125</v>
+        <v>188.56800000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>601.89499999999998</v>
+        <v>350.142</v>
       </c>
       <c r="O4">
-        <v>2169.1309999999999</v>
+        <v>631.31500000000005</v>
       </c>
       <c r="P4">
-        <v>1210.9970000000001</v>
+        <v>420.21</v>
       </c>
       <c r="Q4">
-        <v>41.584000000000003</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1985.643</v>
+        <v>322.23500000000001</v>
       </c>
       <c r="U4">
-        <v>196.59299999999999</v>
+        <v>7.806</v>
       </c>
       <c r="V4">
-        <v>115.155</v>
+        <v>-26.027000000000001</v>
       </c>
       <c r="W4">
-        <v>-9.6059999999999999</v>
+        <v>-1.9790000000000001</v>
       </c>
       <c r="X4">
-        <v>117.054</v>
+        <v>61.338999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>94.144000000000005</v>
+        <v>18.652999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>97.977999999999994</v>
+        <v>17.727</v>
       </c>
       <c r="D5">
-        <v>750.54600000000005</v>
+        <v>256.53300000000002</v>
       </c>
       <c r="E5">
-        <v>425.01100000000002</v>
+        <v>204.083</v>
       </c>
       <c r="F5">
-        <v>257.27999999999997</v>
+        <v>64.772999999999996</v>
       </c>
       <c r="G5">
-        <v>1080.537</v>
+        <v>388.66699999999997</v>
       </c>
       <c r="H5">
-        <v>4116.3010000000004</v>
+        <v>997</v>
       </c>
       <c r="I5">
-        <v>263.14299999999997</v>
+        <v>79.703000000000003</v>
       </c>
       <c r="J5">
-        <v>1070.54</v>
+        <v>305.85599999999999</v>
       </c>
       <c r="K5">
-        <v>34.4</v>
+        <v>141.334</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>518.20699999999999</v>
+        <v>315.77600000000001</v>
       </c>
       <c r="O5">
-        <v>2068.4409999999998</v>
+        <v>670.245</v>
       </c>
       <c r="P5">
-        <v>1111.175</v>
+        <v>447.19</v>
       </c>
       <c r="Q5">
-        <v>21.681000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2047.86</v>
+        <v>326.755</v>
       </c>
       <c r="U5">
-        <v>218.274</v>
+        <v>7.9429999999999996</v>
       </c>
       <c r="V5">
-        <v>137.04400000000001</v>
+        <v>30.420999999999999</v>
       </c>
       <c r="W5">
-        <v>-9.6349999999999998</v>
+        <v>-1.978</v>
       </c>
       <c r="X5">
-        <v>-93.867999999999995</v>
+        <v>13.266</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>97.977999999999994</v>
+        <v>17.727</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>101.907</v>
+        <v>11.459</v>
       </c>
       <c r="D6">
-        <v>762.75099999999998</v>
+        <v>237.26300000000001</v>
       </c>
       <c r="E6">
-        <v>438.245</v>
+        <v>181.03100000000001</v>
       </c>
       <c r="F6">
-        <v>272.99799999999999</v>
+        <v>48.076000000000001</v>
       </c>
       <c r="G6">
-        <v>1059.1189999999999</v>
+        <v>379.34699999999998</v>
       </c>
       <c r="H6">
-        <v>4319.49</v>
+        <v>1039.492</v>
       </c>
       <c r="I6">
-        <v>283.06799999999998</v>
+        <v>86.706999999999994</v>
       </c>
       <c r="J6">
-        <v>1123.4159999999999</v>
+        <v>303.43400000000003</v>
       </c>
       <c r="K6">
-        <v>135.892</v>
+        <v>166.14500000000001</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>628.875</v>
+        <v>336.15</v>
       </c>
       <c r="O6">
-        <v>2266.6849999999999</v>
+        <v>704.43399999999997</v>
       </c>
       <c r="P6">
-        <v>1263.924</v>
+        <v>470.83300000000003</v>
       </c>
       <c r="Q6">
-        <v>-47.881999999999998</v>
+        <v>6.1959999999999997</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>12200</v>
+        <v>8100</v>
       </c>
       <c r="T6">
-        <v>2052.8049999999998</v>
+        <v>335.05799999999999</v>
       </c>
       <c r="U6">
-        <v>170.392</v>
+        <v>14.138999999999999</v>
       </c>
       <c r="V6">
-        <v>152.726</v>
+        <v>52.603000000000002</v>
       </c>
       <c r="W6">
-        <v>-9.5660000000000007</v>
+        <v>-1.96</v>
       </c>
       <c r="X6">
-        <v>110.071</v>
+        <v>22.143000000000001</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>101.907</v>
+        <v>11.459</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>110.15</v>
+        <v>19.664999999999999</v>
       </c>
       <c r="D7">
-        <v>827.15200000000004</v>
+        <v>263.55799999999999</v>
       </c>
       <c r="E7">
-        <v>468.32100000000003</v>
+        <v>196.92500000000001</v>
       </c>
       <c r="F7">
-        <v>290.86900000000003</v>
+        <v>71.772000000000006</v>
       </c>
       <c r="G7">
-        <v>1152.8610000000001</v>
+        <v>390.72199999999998</v>
       </c>
       <c r="H7">
-        <v>4608.5919999999996</v>
+        <v>1036.5619999999999</v>
       </c>
       <c r="I7">
-        <v>291.02600000000001</v>
+        <v>81.703999999999994</v>
       </c>
       <c r="J7">
-        <v>1133.165</v>
+        <v>302.76600000000002</v>
       </c>
       <c r="K7">
-        <v>221.328</v>
+        <v>160.53200000000001</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-7.492</v>
       </c>
       <c r="M7">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>750.14200000000005</v>
+        <v>323.75400000000002</v>
       </c>
       <c r="O7">
-        <v>2419.1590000000001</v>
+        <v>681.54</v>
       </c>
       <c r="P7">
-        <v>1360.3409999999999</v>
+        <v>463.298</v>
       </c>
       <c r="Q7">
-        <v>48.911999999999999</v>
+        <v>-1.7789999999999999</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2189.433</v>
+        <v>355.02199999999999</v>
       </c>
       <c r="U7">
-        <v>219.304</v>
+        <v>12.36</v>
       </c>
       <c r="V7">
-        <v>140.88499999999999</v>
+        <v>8.9550000000000001</v>
       </c>
       <c r="W7">
-        <v>-9.5879999999999992</v>
+        <v>-1.9670000000000001</v>
       </c>
       <c r="X7">
-        <v>87.192999999999998</v>
+        <v>-5.4580000000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>110.15</v>
+        <v>19.664999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>113.687</v>
+        <v>21.324999999999999</v>
       </c>
       <c r="D8">
-        <v>825.89800000000002</v>
+        <v>267.42599999999999</v>
       </c>
       <c r="E8">
-        <v>482.79899999999998</v>
+        <v>197.07</v>
       </c>
       <c r="F8">
-        <v>294.14499999999998</v>
+        <v>73.006</v>
       </c>
       <c r="G8">
-        <v>1132.01</v>
+        <v>386.53199999999998</v>
       </c>
       <c r="H8">
-        <v>4885.2039999999997</v>
+        <v>1042.912</v>
       </c>
       <c r="I8">
-        <v>299.73099999999999</v>
+        <v>91.153999999999996</v>
       </c>
       <c r="J8">
-        <v>1122.893</v>
+        <v>303.85500000000002</v>
       </c>
       <c r="K8">
-        <v>382.60599999999999</v>
+        <v>123.744</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>896.38</v>
+        <v>303.63900000000001</v>
       </c>
       <c r="O8">
-        <v>2594.65</v>
+        <v>658.29600000000005</v>
       </c>
       <c r="P8">
-        <v>1511.6010000000001</v>
+        <v>427.59899999999999</v>
       </c>
       <c r="Q8">
-        <v>-55.709000000000003</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2290.5540000000001</v>
+        <v>384.61599999999999</v>
       </c>
       <c r="U8">
-        <v>163.595</v>
+        <v>15.422000000000001</v>
       </c>
       <c r="V8">
-        <v>115.749</v>
+        <v>47.779000000000003</v>
       </c>
       <c r="W8">
-        <v>-14.467000000000001</v>
+        <v>-1.98</v>
       </c>
       <c r="X8">
-        <v>168.07599999999999</v>
+        <v>-36.057000000000002</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>113.687</v>
+        <v>21.324999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>115.39700000000001</v>
+        <v>21.381</v>
       </c>
       <c r="D9">
-        <v>839.37300000000005</v>
+        <v>256.995</v>
       </c>
       <c r="E9">
-        <v>492.86399999999998</v>
+        <v>181.41499999999999</v>
       </c>
       <c r="F9">
-        <v>297.91899999999998</v>
+        <v>72.444999999999993</v>
       </c>
       <c r="G9">
-        <v>1135.8320000000001</v>
+        <v>366.26900000000001</v>
       </c>
       <c r="H9">
-        <v>4893.5110000000004</v>
+        <v>1016.194</v>
       </c>
       <c r="I9">
-        <v>288.221</v>
+        <v>80.600999999999999</v>
       </c>
       <c r="J9">
-        <v>1129.383</v>
+        <v>279.78699999999998</v>
       </c>
       <c r="K9">
-        <v>235.43299999999999</v>
+        <v>136.553</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>762.39300000000003</v>
+        <v>301.07799999999997</v>
       </c>
       <c r="O9">
-        <v>2469.643</v>
+        <v>619.00900000000001</v>
       </c>
       <c r="P9">
-        <v>1372.164</v>
+        <v>416.34</v>
       </c>
       <c r="Q9">
-        <v>-0.74399999999999999</v>
+        <v>2.847</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2423.8679999999999</v>
+        <v>397.185</v>
       </c>
       <c r="U9">
-        <v>162.851</v>
+        <v>18.268999999999998</v>
       </c>
       <c r="V9">
-        <v>162.54</v>
+        <v>23.562000000000001</v>
       </c>
       <c r="W9">
-        <v>-14.500999999999999</v>
+        <v>-1.9750000000000001</v>
       </c>
       <c r="X9">
-        <v>-153.82599999999999</v>
+        <v>-18.596</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>115.39700000000001</v>
+        <v>21.381</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>119.898</v>
+        <v>21.327000000000002</v>
       </c>
       <c r="D10">
-        <v>841.79</v>
+        <v>252.56299999999999</v>
       </c>
       <c r="E10">
-        <v>507.85</v>
+        <v>175.23</v>
       </c>
       <c r="F10">
-        <v>297.14800000000002</v>
+        <v>68.748000000000005</v>
       </c>
       <c r="G10">
-        <v>1164.7429999999999</v>
+        <v>350.56900000000002</v>
       </c>
       <c r="H10">
-        <v>5190.0559999999996</v>
+        <v>1030.0060000000001</v>
       </c>
       <c r="I10">
-        <v>321.18299999999999</v>
+        <v>81.108000000000004</v>
       </c>
       <c r="J10">
-        <v>1133.1210000000001</v>
+        <v>279.63600000000002</v>
       </c>
       <c r="K10">
-        <v>313.47300000000001</v>
+        <v>108.557</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>879.96900000000005</v>
+        <v>261.42</v>
       </c>
       <c r="O10">
-        <v>2654.9050000000002</v>
+        <v>609.82500000000005</v>
       </c>
       <c r="P10">
-        <v>1453.7750000000001</v>
+        <v>390.05799999999999</v>
       </c>
       <c r="Q10">
-        <v>-4.867</v>
+        <v>-4.7859999999999996</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>13700</v>
+        <v>7700</v>
       </c>
       <c r="T10">
-        <v>2535.1509999999998</v>
+        <v>420.18099999999998</v>
       </c>
       <c r="U10">
-        <v>157.98400000000001</v>
+        <v>13.483000000000001</v>
       </c>
       <c r="V10">
-        <v>193.29</v>
+        <v>23.367000000000001</v>
       </c>
       <c r="W10">
-        <v>-14.526999999999999</v>
+        <v>-1.974</v>
       </c>
       <c r="X10">
-        <v>73.096000000000004</v>
+        <v>-24.478999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>119.898</v>
+        <v>21.327000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>125.146</v>
+        <v>19.718</v>
       </c>
       <c r="D11">
-        <v>882.85299999999995</v>
+        <v>267.53100000000001</v>
       </c>
       <c r="E11">
-        <v>529.18200000000002</v>
+        <v>197.57300000000001</v>
       </c>
       <c r="F11">
-        <v>308.779</v>
+        <v>72.466999999999999</v>
       </c>
       <c r="G11">
-        <v>1214.164</v>
+        <v>395.38200000000001</v>
       </c>
       <c r="H11">
-        <v>5174.4750000000004</v>
+        <v>1178.607</v>
       </c>
       <c r="I11">
-        <v>342.565</v>
+        <v>90.183000000000007</v>
       </c>
       <c r="J11">
-        <v>1115.6030000000001</v>
+        <v>358.28800000000001</v>
       </c>
       <c r="K11">
-        <v>202.273</v>
+        <v>137.36099999999999</v>
       </c>
       <c r="L11">
-        <v>-112.468</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>-0.48599999999999999</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>799.13699999999994</v>
+        <v>312.53500000000003</v>
       </c>
       <c r="O11">
-        <v>2552.364</v>
+        <v>745.19100000000003</v>
       </c>
       <c r="P11">
-        <v>1323.6949999999999</v>
+        <v>495.649</v>
       </c>
       <c r="Q11">
-        <v>19.350999999999999</v>
+        <v>7.7869999999999999</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2622.1109999999999</v>
+        <v>433.416</v>
       </c>
       <c r="U11">
-        <v>177.33500000000001</v>
+        <v>21.27</v>
       </c>
       <c r="V11">
-        <v>156.81800000000001</v>
+        <v>25.949000000000002</v>
       </c>
       <c r="W11">
-        <v>-14.567</v>
+        <v>-1.966</v>
       </c>
       <c r="X11">
-        <v>-126.247</v>
+        <v>98.593000000000004</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>125.146</v>
+        <v>19.718</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>128.321</v>
+        <v>21.815999999999999</v>
       </c>
       <c r="D12">
-        <v>878.80899999999997</v>
+        <v>276.87</v>
       </c>
       <c r="E12">
-        <v>521.54700000000003</v>
+        <v>190.82900000000001</v>
       </c>
       <c r="F12">
-        <v>311.21100000000001</v>
+        <v>75.584999999999994</v>
       </c>
       <c r="G12">
-        <v>1243.8009999999999</v>
+        <v>393.39100000000002</v>
       </c>
       <c r="H12">
-        <v>5192.5339999999997</v>
+        <v>1179.874</v>
       </c>
       <c r="I12">
-        <v>332.03800000000001</v>
+        <v>93.9</v>
       </c>
       <c r="J12">
-        <v>1118.086</v>
+        <v>359.32600000000002</v>
       </c>
       <c r="K12">
-        <v>118.2</v>
+        <v>94.159000000000006</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>679.45600000000002</v>
+        <v>278.91699999999997</v>
       </c>
       <c r="O12">
-        <v>2435.3910000000001</v>
+        <v>714.80799999999999</v>
       </c>
       <c r="P12">
-        <v>1243.7439999999999</v>
+        <v>453.48500000000001</v>
       </c>
       <c r="Q12">
-        <v>30.279</v>
+        <v>5.5380000000000003</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2757.143</v>
+        <v>465.06599999999997</v>
       </c>
       <c r="U12">
-        <v>207.614</v>
+        <v>26.808</v>
       </c>
       <c r="V12">
-        <v>128.15799999999999</v>
+        <v>50.305</v>
       </c>
       <c r="W12">
-        <v>-14.587999999999999</v>
+        <v>-1.9970000000000001</v>
       </c>
       <c r="X12">
-        <v>-87.83</v>
+        <v>-41.372999999999998</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>128.321</v>
+        <v>21.815999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>127.864</v>
+        <v>21.917999999999999</v>
       </c>
       <c r="D13">
-        <v>890.00599999999997</v>
+        <v>267.78100000000001</v>
       </c>
       <c r="E13">
-        <v>532.09199999999998</v>
+        <v>190.601</v>
       </c>
       <c r="F13">
-        <v>317.88099999999997</v>
+        <v>77.731999999999999</v>
       </c>
       <c r="G13">
-        <v>1308.557</v>
+        <v>388.59699999999998</v>
       </c>
       <c r="H13">
-        <v>5461.2219999999998</v>
+        <v>1218.096</v>
       </c>
       <c r="I13">
-        <v>330.80099999999999</v>
+        <v>88.686999999999998</v>
       </c>
       <c r="J13">
-        <v>1135.164</v>
+        <v>310.10500000000002</v>
       </c>
       <c r="K13">
-        <v>160</v>
+        <v>152.90600000000001</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>732.221</v>
+        <v>338.96199999999999</v>
       </c>
       <c r="O13">
-        <v>2526.9940000000001</v>
+        <v>727.21</v>
       </c>
       <c r="P13">
-        <v>1300.0899999999999</v>
+        <v>463.01100000000002</v>
       </c>
       <c r="Q13">
-        <v>47.264000000000003</v>
+        <v>-9.9990000000000006</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2934.2280000000001</v>
+        <v>490.88600000000002</v>
       </c>
       <c r="U13">
-        <v>254.87799999999999</v>
+        <v>16.809000000000001</v>
       </c>
       <c r="V13">
-        <v>166.131</v>
+        <v>31.826000000000001</v>
       </c>
       <c r="W13">
-        <v>-14.603999999999999</v>
+        <v>-2.1520000000000001</v>
       </c>
       <c r="X13">
-        <v>39.393999999999998</v>
+        <v>12.744999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>127.864</v>
+        <v>21.917999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>135.66800000000001</v>
+        <v>24.363</v>
       </c>
       <c r="D14">
-        <v>942.46799999999996</v>
+        <v>279.44</v>
       </c>
       <c r="E14">
-        <v>536.70100000000002</v>
+        <v>189.01</v>
       </c>
       <c r="F14">
-        <v>332.62299999999999</v>
+        <v>80.397000000000006</v>
       </c>
       <c r="G14">
-        <v>1369.1289999999999</v>
+        <v>378.58499999999998</v>
       </c>
       <c r="H14">
-        <v>5877.902</v>
+        <v>1217.117</v>
       </c>
       <c r="I14">
-        <v>347.63799999999998</v>
+        <v>96.581999999999994</v>
       </c>
       <c r="J14">
-        <v>1141.75</v>
+        <v>317.67399999999998</v>
       </c>
       <c r="K14">
-        <v>268.76400000000001</v>
+        <v>106.774</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>874.54499999999996</v>
+        <v>289.23099999999999</v>
       </c>
       <c r="O14">
-        <v>2741.7809999999999</v>
+        <v>687.98699999999997</v>
       </c>
       <c r="P14">
-        <v>1415.0650000000001</v>
+        <v>424.44799999999998</v>
       </c>
       <c r="Q14">
-        <v>40.325000000000003</v>
+        <v>-2.496</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>14500</v>
+        <v>7800</v>
       </c>
       <c r="T14">
-        <v>3136.1210000000001</v>
+        <v>529.13</v>
       </c>
       <c r="U14">
-        <v>295.20299999999997</v>
+        <v>14.313000000000001</v>
       </c>
       <c r="V14">
-        <v>209.55199999999999</v>
+        <v>46.823</v>
       </c>
       <c r="W14">
-        <v>-14.646000000000001</v>
+        <v>-2.0089999999999999</v>
       </c>
       <c r="X14">
-        <v>104.399</v>
+        <v>-43.034999999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>135.66800000000001</v>
+        <v>24.363</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>140.58600000000001</v>
+        <v>24.664000000000001</v>
       </c>
       <c r="D15">
-        <v>975.29200000000003</v>
+        <v>291.423</v>
       </c>
       <c r="E15">
-        <v>592.40700000000004</v>
+        <v>195.24700000000001</v>
       </c>
       <c r="F15">
-        <v>350.12200000000001</v>
+        <v>83.061000000000007</v>
       </c>
       <c r="G15">
-        <v>1434.171</v>
+        <v>397.53199999999998</v>
       </c>
       <c r="H15">
-        <v>6088.8429999999998</v>
+        <v>1226.9559999999999</v>
       </c>
       <c r="I15">
-        <v>370.04700000000003</v>
+        <v>103.608</v>
       </c>
       <c r="J15">
-        <v>1142.818</v>
+        <v>318.834</v>
       </c>
       <c r="K15">
-        <v>256.89699999999999</v>
+        <v>76.524000000000001</v>
       </c>
       <c r="L15">
-        <v>-6.516</v>
+        <v>-30.146999999999998</v>
       </c>
       <c r="M15">
-        <v>-0.221</v>
+        <v>-1.833</v>
       </c>
       <c r="N15">
-        <v>931.80499999999995</v>
+        <v>269.14600000000002</v>
       </c>
       <c r="O15">
-        <v>2816.2109999999998</v>
+        <v>675.57399999999996</v>
       </c>
       <c r="P15">
-        <v>1407.8869999999999</v>
+        <v>395.358</v>
       </c>
       <c r="Q15">
-        <v>-29.867999999999999</v>
+        <v>3.3450000000000002</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3272.6320000000001</v>
+        <v>551.38199999999995</v>
       </c>
       <c r="U15">
-        <v>265.33499999999998</v>
+        <v>17.658000000000001</v>
       </c>
       <c r="V15">
-        <v>160.96100000000001</v>
+        <v>41.179000000000002</v>
       </c>
       <c r="W15">
-        <v>-14.662000000000001</v>
+        <v>-4.0339999999999998</v>
       </c>
       <c r="X15">
-        <v>-14.914</v>
+        <v>-33.128</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>140.58600000000001</v>
+        <v>24.664000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>150.06299999999999</v>
+        <v>27.667000000000002</v>
       </c>
       <c r="D16">
-        <v>990.71799999999996</v>
+        <v>303.91699999999997</v>
       </c>
       <c r="E16">
-        <v>594.15099999999995</v>
+        <v>218.649</v>
       </c>
       <c r="F16">
-        <v>360.07299999999998</v>
+        <v>88.334000000000003</v>
       </c>
       <c r="G16">
-        <v>1530.67</v>
+        <v>442.95100000000002</v>
       </c>
       <c r="H16">
-        <v>6485.0029999999997</v>
+        <v>1350.27</v>
       </c>
       <c r="I16">
-        <v>382.57400000000001</v>
+        <v>111.751</v>
       </c>
       <c r="J16">
-        <v>1148.248</v>
+        <v>414.05099999999999</v>
       </c>
       <c r="K16">
-        <v>453.33699999999999</v>
+        <v>48.12</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1121.825</v>
+        <v>268.512</v>
       </c>
       <c r="O16">
-        <v>3063.085</v>
+        <v>766.83600000000001</v>
       </c>
       <c r="P16">
-        <v>1602.6659999999999</v>
+        <v>462.17099999999999</v>
       </c>
       <c r="Q16">
-        <v>17.436</v>
+        <v>8.8810000000000002</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3421.9180000000001</v>
+        <v>583.43399999999997</v>
       </c>
       <c r="U16">
-        <v>282.77100000000002</v>
+        <v>26.539000000000001</v>
       </c>
       <c r="V16">
-        <v>155.078</v>
+        <v>35.966999999999999</v>
       </c>
       <c r="W16">
-        <v>-22.024000000000001</v>
+        <v>-4.0629999999999997</v>
       </c>
       <c r="X16">
-        <v>173.04499999999999</v>
+        <v>71.701999999999998</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>150.06299999999999</v>
+        <v>27.667000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>141.81100000000001</v>
+        <v>29.02</v>
       </c>
       <c r="D17">
-        <v>1031.8109999999999</v>
+        <v>310.70699999999999</v>
       </c>
       <c r="E17">
-        <v>593.452</v>
+        <v>214.92</v>
       </c>
       <c r="F17">
-        <v>367.77199999999999</v>
+        <v>94.173000000000002</v>
       </c>
       <c r="G17">
-        <v>1590.13</v>
+        <v>449.512</v>
       </c>
       <c r="H17">
-        <v>6571.0609999999997</v>
+        <v>1391.5889999999999</v>
       </c>
       <c r="I17">
-        <v>381.82</v>
+        <v>103.414</v>
       </c>
       <c r="J17">
-        <v>1473.482</v>
+        <v>407.964</v>
       </c>
       <c r="K17">
-        <v>5.36</v>
+        <v>79.453999999999994</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>831.70899999999995</v>
+        <v>283.91500000000002</v>
       </c>
       <c r="O17">
-        <v>3103.2539999999999</v>
+        <v>779.77800000000002</v>
       </c>
       <c r="P17">
-        <v>1636.684</v>
+        <v>487.41800000000001</v>
       </c>
       <c r="Q17">
-        <v>86.841999999999999</v>
+        <v>-2.9980000000000002</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>3467.8069999999998</v>
+        <v>611.81100000000004</v>
       </c>
       <c r="U17">
-        <v>369.613</v>
+        <v>23.541</v>
       </c>
       <c r="V17">
-        <v>196.61500000000001</v>
+        <v>23.064</v>
       </c>
       <c r="W17">
-        <v>-22.04</v>
+        <v>-4.0830000000000002</v>
       </c>
       <c r="X17">
-        <v>35.804000000000002</v>
+        <v>25.321000000000002</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>141.81100000000001</v>
+        <v>29.02</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>152</v>
+        <v>31.36</v>
       </c>
       <c r="D18">
-        <v>1024.143</v>
+        <v>326.27100000000002</v>
       </c>
       <c r="E18">
-        <v>585.46199999999999</v>
+        <v>217.32900000000001</v>
       </c>
       <c r="F18">
-        <v>365.88</v>
+        <v>102.923</v>
       </c>
       <c r="G18">
-        <v>1578.604</v>
+        <v>461.94</v>
       </c>
       <c r="H18">
-        <v>6420.9629999999997</v>
+        <v>1420.3520000000001</v>
       </c>
       <c r="I18">
-        <v>386.20699999999999</v>
+        <v>109.036</v>
       </c>
       <c r="J18">
-        <v>1427.825</v>
+        <v>400.17700000000002</v>
       </c>
       <c r="K18">
-        <v>88.1</v>
+        <v>49.942999999999998</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>936.14400000000001</v>
+        <v>272.83800000000002</v>
       </c>
       <c r="O18">
-        <v>3181.402</v>
+        <v>760.77</v>
       </c>
       <c r="P18">
-        <v>1714.0260000000001</v>
+        <v>450.12</v>
       </c>
       <c r="Q18">
-        <v>8.0020000000000007</v>
+        <v>14.041</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>15400</v>
+        <v>8300</v>
       </c>
       <c r="T18">
-        <v>3239.5610000000001</v>
+        <v>659.58199999999999</v>
       </c>
       <c r="U18">
-        <v>377.61500000000001</v>
+        <v>37.582000000000001</v>
       </c>
       <c r="V18">
-        <v>213.30799999999999</v>
+        <v>61.07</v>
       </c>
       <c r="W18">
-        <v>-21.824999999999999</v>
+        <v>-4.0970000000000004</v>
       </c>
       <c r="X18">
-        <v>-169.79599999999999</v>
+        <v>-48.35</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>152</v>
+        <v>31.36</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>142.107</v>
+        <v>30.971</v>
       </c>
       <c r="D19">
-        <v>984.05899999999997</v>
+        <v>334.096</v>
       </c>
       <c r="E19">
-        <v>592.30100000000004</v>
+        <v>232.76300000000001</v>
       </c>
       <c r="F19">
-        <v>363.89400000000001</v>
+        <v>99.92</v>
       </c>
       <c r="G19">
-        <v>1608.7539999999999</v>
+        <v>479.24099999999999</v>
       </c>
       <c r="H19">
-        <v>6335.24</v>
+        <v>1431.25</v>
       </c>
       <c r="I19">
-        <v>381.05399999999997</v>
+        <v>115.994</v>
       </c>
       <c r="J19">
-        <v>1418.6379999999999</v>
+        <v>397.904</v>
       </c>
       <c r="K19">
-        <v>70</v>
+        <v>29.236999999999998</v>
       </c>
       <c r="L19">
-        <v>-24.704000000000001</v>
+        <v>-20.702999999999999</v>
       </c>
       <c r="M19">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>898.50199999999995</v>
+        <v>251.636</v>
       </c>
       <c r="O19">
-        <v>3071.3780000000002</v>
+        <v>739.00599999999997</v>
       </c>
       <c r="P19">
-        <v>1672.6759999999999</v>
+        <v>427.14100000000002</v>
       </c>
       <c r="Q19">
-        <v>28.972000000000001</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>3263.8620000000001</v>
+        <v>692.24400000000003</v>
       </c>
       <c r="U19">
-        <v>406.58699999999999</v>
+        <v>38.807000000000002</v>
       </c>
       <c r="V19">
-        <v>121.926</v>
+        <v>18.126000000000001</v>
       </c>
       <c r="W19">
-        <v>-21.641999999999999</v>
+        <v>-4.125</v>
       </c>
       <c r="X19">
-        <v>-53.244999999999997</v>
+        <v>-15.952999999999999</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>142.107</v>
+        <v>30.971</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>155.51300000000001</v>
+        <v>34.118000000000002</v>
       </c>
       <c r="D20">
-        <v>1003.726</v>
+        <v>352.05099999999999</v>
       </c>
       <c r="E20">
-        <v>619.08000000000004</v>
+        <v>246.505</v>
       </c>
       <c r="F20">
-        <v>369.80099999999999</v>
+        <v>109.14400000000001</v>
       </c>
       <c r="G20">
-        <v>1599.3420000000001</v>
+        <v>517.84400000000005</v>
       </c>
       <c r="H20">
-        <v>6557.8109999999997</v>
+        <v>1558.481</v>
       </c>
       <c r="I20">
-        <v>384.25400000000002</v>
+        <v>121.999</v>
       </c>
       <c r="J20">
-        <v>1481.9059999999999</v>
+        <v>485.81400000000002</v>
       </c>
       <c r="K20">
-        <v>183.90299999999999</v>
+        <v>6.843</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>830.13099999999997</v>
+        <v>263.346</v>
       </c>
       <c r="O20">
-        <v>3104.4769999999999</v>
+        <v>838.8</v>
       </c>
       <c r="P20">
-        <v>1665.809</v>
+        <v>492.65699999999998</v>
       </c>
       <c r="Q20">
-        <v>-79.998999999999995</v>
+        <v>14.542999999999999</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3453.3339999999998</v>
+        <v>719.68100000000004</v>
       </c>
       <c r="U20">
-        <v>326.58800000000002</v>
+        <v>53.35</v>
       </c>
       <c r="V20">
-        <v>163.46199999999999</v>
+        <v>45.445999999999998</v>
       </c>
       <c r="W20">
-        <v>-21.701000000000001</v>
+        <v>-4.1360000000000001</v>
       </c>
       <c r="X20">
-        <v>-44.96</v>
+        <v>75.225999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>155.51300000000001</v>
+        <v>34.118000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>156.398</v>
+        <v>34.369</v>
       </c>
       <c r="D21">
-        <v>998.52700000000004</v>
+        <v>344.529</v>
       </c>
       <c r="E21">
-        <v>610.01900000000001</v>
+        <v>240.04300000000001</v>
       </c>
       <c r="F21">
-        <v>366.73700000000002</v>
+        <v>110.52200000000001</v>
       </c>
       <c r="G21">
-        <v>1590.74</v>
+        <v>517.4</v>
       </c>
       <c r="H21">
-        <v>6644.0240000000003</v>
+        <v>1603.99</v>
       </c>
       <c r="I21">
-        <v>375.18700000000001</v>
+        <v>119.298</v>
       </c>
       <c r="J21">
-        <v>1621.8119999999999</v>
+        <v>488.84100000000001</v>
       </c>
       <c r="K21">
-        <v>257.3</v>
+        <v>25.585000000000001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>925.47699999999998</v>
+        <v>273.48500000000001</v>
       </c>
       <c r="O21">
-        <v>3328.7550000000001</v>
+        <v>848.18</v>
       </c>
       <c r="P21">
-        <v>1917.0709999999999</v>
+        <v>514.42600000000004</v>
       </c>
       <c r="Q21">
-        <v>1.446</v>
+        <v>-13.268000000000001</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3315.2689999999998</v>
+        <v>755.81</v>
       </c>
       <c r="U21">
-        <v>328.03399999999999</v>
+        <v>40.082000000000001</v>
       </c>
       <c r="V21">
-        <v>187.75399999999999</v>
+        <v>46.698999999999998</v>
       </c>
       <c r="W21">
-        <v>-21.318000000000001</v>
+        <v>-4.1479999999999997</v>
       </c>
       <c r="X21">
-        <v>-2.9140000000000001</v>
+        <v>21.977</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>156.398</v>
+        <v>34.369</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>136.84100000000001</v>
+        <v>36.899000000000001</v>
       </c>
       <c r="D22">
-        <v>987.98299999999995</v>
+        <v>403.78100000000001</v>
       </c>
       <c r="E22">
-        <v>603.29499999999996</v>
+        <v>269.39499999999998</v>
       </c>
       <c r="F22">
-        <v>291.67599999999999</v>
+        <v>123.083</v>
       </c>
       <c r="G22">
-        <v>1618.827</v>
+        <v>556.30700000000002</v>
       </c>
       <c r="H22">
-        <v>6660.45</v>
+        <v>1780.6</v>
       </c>
       <c r="I22">
-        <v>365.35500000000002</v>
+        <v>132.506</v>
       </c>
       <c r="J22">
-        <v>1553.116</v>
+        <v>475.30900000000003</v>
       </c>
       <c r="K22">
-        <v>312.99900000000002</v>
+        <v>156.13</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1024.021</v>
+        <v>405.79199999999997</v>
       </c>
       <c r="O22">
-        <v>3405.8240000000001</v>
+        <v>971.08</v>
       </c>
       <c r="P22">
-        <v>1938.04</v>
+        <v>631.43899999999996</v>
       </c>
       <c r="Q22">
-        <v>52.970999999999997</v>
+        <v>-4.5369999999999999</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>15400</v>
+        <v>9800</v>
       </c>
       <c r="T22">
-        <v>3254.6260000000002</v>
+        <v>809.52</v>
       </c>
       <c r="U22">
-        <v>381.005</v>
+        <v>35.545000000000002</v>
       </c>
       <c r="V22">
-        <v>199.398</v>
+        <v>45.39</v>
       </c>
       <c r="W22">
-        <v>-21.327000000000002</v>
+        <v>-4.4050000000000002</v>
       </c>
       <c r="X22">
-        <v>-115.845</v>
+        <v>125.76600000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>136.84100000000001</v>
+        <v>36.899000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>134.16999999999999</v>
+        <v>40.258000000000003</v>
       </c>
       <c r="D23">
-        <v>944.39800000000002</v>
+        <v>423.86700000000002</v>
       </c>
       <c r="E23">
-        <v>606.88800000000003</v>
+        <v>289.95699999999999</v>
       </c>
       <c r="F23">
-        <v>320.71699999999998</v>
+        <v>131.09899999999999</v>
       </c>
       <c r="G23">
-        <v>1662.59</v>
+        <v>599.70699999999999</v>
       </c>
       <c r="H23">
-        <v>6994.7020000000002</v>
+        <v>1847.828</v>
       </c>
       <c r="I23">
-        <v>366.23599999999999</v>
+        <v>145.48599999999999</v>
       </c>
       <c r="J23">
-        <v>1552.674</v>
+        <v>478.37200000000001</v>
       </c>
       <c r="K23">
-        <v>600.91700000000003</v>
+        <v>139.22499999999999</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-15.772</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-1.29</v>
       </c>
       <c r="N23">
-        <v>1290.5540000000001</v>
+        <v>420.73599999999999</v>
       </c>
       <c r="O23">
-        <v>3698.0160000000001</v>
+        <v>990.21600000000001</v>
       </c>
       <c r="P23">
-        <v>2218.36</v>
+        <v>617.59699999999998</v>
       </c>
       <c r="Q23">
-        <v>5.9349999999999996</v>
+        <v>3.448</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>3296.6860000000001</v>
+        <v>857.61199999999997</v>
       </c>
       <c r="U23">
-        <v>386.94</v>
+        <v>38.993000000000002</v>
       </c>
       <c r="V23">
-        <v>151.619</v>
+        <v>38.686999999999998</v>
       </c>
       <c r="W23">
-        <v>-21.006</v>
+        <v>-4.1870000000000003</v>
       </c>
       <c r="X23">
-        <v>149.63800000000001</v>
+        <v>-15.952</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>134.16999999999999</v>
+        <v>40.258000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>138.19300000000001</v>
+        <v>46.468000000000004</v>
       </c>
       <c r="D24">
-        <v>977.70600000000002</v>
+        <v>450.58499999999998</v>
       </c>
       <c r="E24">
-        <v>596.58900000000006</v>
+        <v>315.53800000000001</v>
       </c>
       <c r="F24">
-        <v>337.995</v>
+        <v>142.27699999999999</v>
       </c>
       <c r="G24">
-        <v>1707.6220000000001</v>
+        <v>658.529</v>
       </c>
       <c r="H24">
-        <v>6955.78</v>
+        <v>2037.2349999999999</v>
       </c>
       <c r="I24">
-        <v>358.423</v>
+        <v>155.316</v>
       </c>
       <c r="J24">
-        <v>1542.8230000000001</v>
+        <v>509.76499999999999</v>
       </c>
       <c r="K24">
-        <v>542.95000000000005</v>
+        <v>182.06200000000001</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1207.462</v>
+        <v>496.41</v>
       </c>
       <c r="O24">
-        <v>3599.203</v>
+        <v>1126.42</v>
       </c>
       <c r="P24">
-        <v>2142.152</v>
+        <v>691.827</v>
       </c>
       <c r="Q24">
-        <v>69.254999999999995</v>
+        <v>5.5179999999999998</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>3356.5770000000002</v>
+        <v>910.81500000000005</v>
       </c>
       <c r="U24">
-        <v>456.19499999999999</v>
+        <v>44.511000000000003</v>
       </c>
       <c r="V24">
-        <v>188.94</v>
+        <v>63.033000000000001</v>
       </c>
       <c r="W24">
-        <v>-20.95</v>
+        <v>-4.2409999999999997</v>
       </c>
       <c r="X24">
-        <v>-93.131</v>
+        <v>47.988999999999997</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>138.19300000000001</v>
+        <v>46.468000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>130.68700000000001</v>
+        <v>47.371000000000002</v>
       </c>
       <c r="D25">
-        <v>945.03</v>
+        <v>464.16399999999999</v>
       </c>
       <c r="E25">
-        <v>595.14300000000003</v>
+        <v>317.67899999999997</v>
       </c>
       <c r="F25">
-        <v>314.286</v>
+        <v>145.88900000000001</v>
       </c>
       <c r="G25">
-        <v>1696.89</v>
+        <v>659.45500000000004</v>
       </c>
       <c r="H25">
-        <v>6977.0619999999999</v>
+        <v>2040.2360000000001</v>
       </c>
       <c r="I25">
-        <v>345.49</v>
+        <v>146.41999999999999</v>
       </c>
       <c r="J25">
-        <v>1540.742</v>
+        <v>506.29500000000002</v>
       </c>
       <c r="K25">
-        <v>556.26400000000001</v>
+        <v>167.10499999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1216.7380000000001</v>
+        <v>472.73</v>
       </c>
       <c r="O25">
-        <v>3603.8629999999998</v>
+        <v>1099.192</v>
       </c>
       <c r="P25">
-        <v>2154.4259999999999</v>
+        <v>673.4</v>
       </c>
       <c r="Q25">
-        <v>-10.726000000000001</v>
+        <v>6.5970000000000004</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>3373.1990000000001</v>
+        <v>941.04399999999998</v>
       </c>
       <c r="U25">
-        <v>445.46899999999999</v>
+        <v>51.107999999999997</v>
       </c>
       <c r="V25">
-        <v>168.958</v>
+        <v>58.906999999999996</v>
       </c>
       <c r="W25">
-        <v>-20.748999999999999</v>
+        <v>-4.1740000000000004</v>
       </c>
       <c r="X25">
-        <v>-97.894999999999996</v>
+        <v>-38.94</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>130.68700000000001</v>
+        <v>47.371000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>109.108</v>
+        <v>47.837000000000003</v>
       </c>
       <c r="D26">
-        <v>972.95299999999997</v>
+        <v>480.67399999999998</v>
       </c>
       <c r="E26">
-        <v>592.32600000000002</v>
+        <v>328.762</v>
       </c>
       <c r="F26">
-        <v>329.76900000000001</v>
+        <v>148.10499999999999</v>
       </c>
       <c r="G26">
-        <v>1928.19</v>
+        <v>684.06299999999999</v>
       </c>
       <c r="H26">
-        <v>7100.674</v>
+        <v>2130.8760000000002</v>
       </c>
       <c r="I26">
-        <v>369.53699999999998</v>
+        <v>160.614</v>
       </c>
       <c r="J26">
-        <v>2062.6439999999998</v>
+        <v>518.26700000000005</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>163.608</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>924.44100000000003</v>
+        <v>480.9</v>
       </c>
       <c r="O26">
-        <v>3844.1610000000001</v>
+        <v>1164.204</v>
       </c>
       <c r="P26">
-        <v>2341.5650000000001</v>
+        <v>681.875</v>
       </c>
       <c r="Q26">
-        <v>271.79000000000002</v>
+        <v>-2.0169999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>15700</v>
+        <v>10400</v>
       </c>
       <c r="T26">
-        <v>3256.5129999999999</v>
+        <v>966.67200000000003</v>
       </c>
       <c r="U26">
-        <v>717.25900000000001</v>
+        <v>49.091000000000001</v>
       </c>
       <c r="V26">
-        <v>247.31800000000001</v>
+        <v>65.34</v>
       </c>
       <c r="W26">
-        <v>-20.562000000000001</v>
+        <v>-6.23</v>
       </c>
       <c r="X26">
-        <v>98.441999999999993</v>
+        <v>-3.0510000000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>109.108</v>
+        <v>47.837000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>138.92599999999999</v>
+        <v>50.9</v>
       </c>
       <c r="D27">
-        <v>1007.682</v>
+        <v>505.28300000000002</v>
       </c>
       <c r="E27">
-        <v>603.9</v>
+        <v>347.57100000000003</v>
       </c>
       <c r="F27">
-        <v>340.28</v>
+        <v>161.93899999999999</v>
       </c>
       <c r="G27">
-        <v>1787.443</v>
+        <v>712.67899999999997</v>
       </c>
       <c r="H27">
-        <v>7298.81</v>
+        <v>2177.7809999999999</v>
       </c>
       <c r="I27">
-        <v>382.80500000000001</v>
+        <v>169.255</v>
       </c>
       <c r="J27">
-        <v>2076.5770000000002</v>
+        <v>520.48299999999995</v>
       </c>
       <c r="K27">
-        <v>58.192</v>
+        <v>127.855</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-35.454999999999998</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>1016.798</v>
+        <v>461.64400000000001</v>
       </c>
       <c r="O27">
-        <v>3894.5749999999998</v>
+        <v>1162.8720000000001</v>
       </c>
       <c r="P27">
-        <v>2414.5279999999998</v>
+        <v>648.33799999999997</v>
       </c>
       <c r="Q27">
-        <v>-147.02600000000001</v>
+        <v>8.3130000000000006</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>3404.2350000000001</v>
+        <v>1014.909</v>
       </c>
       <c r="U27">
-        <v>570.23299999999995</v>
+        <v>57.404000000000003</v>
       </c>
       <c r="V27">
-        <v>142.44399999999999</v>
+        <v>54.847000000000001</v>
       </c>
       <c r="W27">
-        <v>-20.623000000000001</v>
+        <v>-6.3819999999999997</v>
       </c>
       <c r="X27">
-        <v>51.884</v>
+        <v>-38.526000000000003</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>138.92599999999999</v>
+        <v>50.9</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>150.48099999999999</v>
+        <v>58.012999999999998</v>
       </c>
       <c r="D28">
-        <v>1064.604</v>
+        <v>519.46799999999996</v>
       </c>
       <c r="E28">
-        <v>642.26300000000003</v>
+        <v>367.322</v>
       </c>
       <c r="F28">
-        <v>362.41300000000001</v>
+        <v>169.23099999999999</v>
       </c>
       <c r="G28">
-        <v>1789.2729999999999</v>
+        <v>778.928</v>
       </c>
       <c r="H28">
-        <v>7535.0129999999999</v>
+        <v>2326.3470000000002</v>
       </c>
       <c r="I28">
-        <v>405.93700000000001</v>
+        <v>170.89099999999999</v>
       </c>
       <c r="J28">
-        <v>2128.8380000000002</v>
+        <v>526.05700000000002</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>184.49799999999999</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>995.14599999999996</v>
+        <v>531.15700000000004</v>
       </c>
       <c r="O28">
-        <v>3942.817</v>
+        <v>1242.0719999999999</v>
       </c>
       <c r="P28">
-        <v>2401.3879999999999</v>
+        <v>710.55499999999995</v>
       </c>
       <c r="Q28">
-        <v>-53.75</v>
+        <v>18.911999999999999</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3592.1959999999999</v>
+        <v>1084.2750000000001</v>
       </c>
       <c r="U28">
-        <v>516.48299999999995</v>
+        <v>76.316000000000003</v>
       </c>
       <c r="V28">
-        <v>198.964</v>
+        <v>65.081999999999994</v>
       </c>
       <c r="W28">
-        <v>-20.677</v>
+        <v>-6.4089999999999998</v>
       </c>
       <c r="X28">
-        <v>-75.078000000000003</v>
+        <v>62.162999999999997</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>150.48099999999999</v>
+        <v>58.012999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>153.53100000000001</v>
+        <v>57.244</v>
       </c>
       <c r="D29">
-        <v>1084.799</v>
+        <v>528.84900000000005</v>
       </c>
       <c r="E29">
-        <v>640.81500000000005</v>
+        <v>377.93400000000003</v>
       </c>
       <c r="F29">
-        <v>362.67200000000003</v>
+        <v>172.167</v>
       </c>
       <c r="G29">
-        <v>2024.4829999999999</v>
+        <v>845.55899999999997</v>
       </c>
       <c r="H29">
-        <v>7783.3010000000004</v>
+        <v>2514.15</v>
       </c>
       <c r="I29">
-        <v>409.35700000000003</v>
+        <v>189.27600000000001</v>
       </c>
       <c r="J29">
-        <v>1920.8789999999999</v>
+        <v>547.21900000000005</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>233.11099999999999</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1270.3409999999999</v>
+        <v>609.58299999999997</v>
       </c>
       <c r="O29">
-        <v>4017.1460000000002</v>
+        <v>1362.1759999999999</v>
       </c>
       <c r="P29">
-        <v>2430.4459999999999</v>
+        <v>780.33</v>
       </c>
       <c r="Q29">
-        <v>219.93199999999999</v>
+        <v>-3.7589999999999999</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>3766.1550000000002</v>
+        <v>1151.9739999999999</v>
       </c>
       <c r="U29">
-        <v>736.41499999999996</v>
+        <v>72.557000000000002</v>
       </c>
       <c r="V29">
-        <v>238.98599999999999</v>
+        <v>61.956000000000003</v>
       </c>
       <c r="W29">
-        <v>-20.702999999999999</v>
+        <v>-6.4169999999999998</v>
       </c>
       <c r="X29">
-        <v>-19.795000000000002</v>
+        <v>28.992000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>153.53100000000001</v>
+        <v>57.244</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>238.53200000000001</v>
+        <v>61.863</v>
       </c>
       <c r="D30">
-        <v>1143.085</v>
+        <v>583.25</v>
       </c>
       <c r="E30">
-        <v>682.17600000000004</v>
+        <v>395.63099999999997</v>
       </c>
       <c r="F30">
-        <v>390.23500000000001</v>
+        <v>188.999</v>
       </c>
       <c r="G30">
-        <v>1934.655</v>
+        <v>952.20399999999995</v>
       </c>
       <c r="H30">
-        <v>7796.0640000000003</v>
+        <v>2745.7</v>
       </c>
       <c r="I30">
-        <v>437.32900000000001</v>
+        <v>206.17</v>
       </c>
       <c r="J30">
-        <v>1866.1659999999999</v>
+        <v>666.95299999999997</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>234.994</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,120 +3216,120 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1138.663</v>
+        <v>640.75</v>
       </c>
       <c r="O30">
-        <v>3768.431</v>
+        <v>1504.9929999999999</v>
       </c>
       <c r="P30">
-        <v>2174.2890000000002</v>
+        <v>902.95799999999997</v>
       </c>
       <c r="Q30">
-        <v>-90.114999999999995</v>
+        <v>97.581999999999994</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>16900</v>
+        <v>11300</v>
       </c>
       <c r="T30">
-        <v>4027.6329999999998</v>
+        <v>1240.7070000000001</v>
       </c>
       <c r="U30">
-        <v>646.29999999999995</v>
+        <v>170.13900000000001</v>
       </c>
       <c r="V30">
-        <v>252.86500000000001</v>
+        <v>96.638000000000005</v>
       </c>
       <c r="W30">
-        <v>-20.731999999999999</v>
+        <v>-6.54</v>
       </c>
       <c r="X30">
-        <v>-286.18200000000002</v>
+        <v>121.46899999999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-1.7</v>
       </c>
       <c r="AA30">
-        <v>238.53200000000001</v>
+        <v>61.863</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>181.34</v>
+        <v>66.356999999999999</v>
       </c>
       <c r="D31">
-        <v>1172.6469999999999</v>
+        <v>611.197</v>
       </c>
       <c r="E31">
-        <v>684.61699999999996</v>
+        <v>430.178</v>
       </c>
       <c r="F31">
-        <v>395.84699999999998</v>
+        <v>200.18</v>
       </c>
       <c r="G31">
-        <v>1960.2049999999999</v>
+        <v>950.89800000000002</v>
       </c>
       <c r="H31">
-        <v>8058.3609999999999</v>
+        <v>2848.4969999999998</v>
       </c>
       <c r="I31">
-        <v>382.31299999999999</v>
+        <v>236.83799999999999</v>
       </c>
       <c r="J31">
-        <v>1897.633</v>
+        <v>667.73099999999999</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>236.517</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-6.8819999999999997</v>
       </c>
       <c r="N31">
-        <v>1159.923</v>
+        <v>692.70299999999997</v>
       </c>
       <c r="O31">
-        <v>3853.9639999999999</v>
+        <v>1568.5150000000001</v>
       </c>
       <c r="P31">
-        <v>2205.7020000000002</v>
+        <v>904.24800000000005</v>
       </c>
       <c r="Q31">
-        <v>-89.524000000000001</v>
+        <v>-55.430999999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4204.3969999999999</v>
+        <v>1279.982</v>
       </c>
       <c r="U31">
-        <v>556.77599999999995</v>
+        <v>114.708</v>
       </c>
       <c r="V31">
-        <v>177.40199999999999</v>
+        <v>76.503</v>
       </c>
       <c r="W31">
-        <v>-32.302</v>
+        <v>-6.319</v>
       </c>
       <c r="X31">
-        <v>-27.055</v>
+        <v>-54.180999999999997</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>181.34</v>
+        <v>66.356999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>193.86</v>
+        <v>65.841999999999999</v>
       </c>
       <c r="D32">
-        <v>1208.9349999999999</v>
+        <v>648.77099999999996</v>
       </c>
       <c r="E32">
-        <v>710.95600000000002</v>
+        <v>442.56599999999997</v>
       </c>
       <c r="F32">
-        <v>417.68700000000001</v>
+        <v>211.58799999999999</v>
       </c>
       <c r="G32">
-        <v>2018.126</v>
+        <v>1028.3530000000001</v>
       </c>
       <c r="H32">
-        <v>8152.4520000000002</v>
+        <v>3109.1390000000001</v>
       </c>
       <c r="I32">
-        <v>394.28300000000002</v>
+        <v>253.37700000000001</v>
       </c>
       <c r="J32">
-        <v>1838.2239999999999</v>
+        <v>667.85400000000004</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>422.08300000000003</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1182.5170000000001</v>
+        <v>880.43700000000001</v>
       </c>
       <c r="O32">
-        <v>3814.3560000000002</v>
+        <v>1763.008</v>
       </c>
       <c r="P32">
-        <v>2145.8850000000002</v>
+        <v>1089.9369999999999</v>
       </c>
       <c r="Q32">
-        <v>0.91700000000000004</v>
+        <v>26.9</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4338.0959999999995</v>
+        <v>1346.1310000000001</v>
       </c>
       <c r="U32">
-        <v>557.69299999999998</v>
+        <v>141.608</v>
       </c>
       <c r="V32">
-        <v>203.14</v>
+        <v>65.299000000000007</v>
       </c>
       <c r="W32">
-        <v>-32.350999999999999</v>
+        <v>-6.4</v>
       </c>
       <c r="X32">
-        <v>-28.492999999999999</v>
+        <v>172.91399999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3421,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>193.86</v>
+        <v>65.841999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>191.21299999999999</v>
+        <v>70.924000000000007</v>
       </c>
       <c r="D33">
-        <v>1192.962</v>
+        <v>647.423</v>
       </c>
       <c r="E33">
-        <v>714.92899999999997</v>
+        <v>438.14299999999997</v>
       </c>
       <c r="F33">
-        <v>409.96800000000002</v>
+        <v>209.947</v>
       </c>
       <c r="G33">
-        <v>1998.615</v>
+        <v>1039.9449999999999</v>
       </c>
       <c r="H33">
-        <v>8108.0429999999997</v>
+        <v>3165.1439999999998</v>
       </c>
       <c r="I33">
-        <v>389.13</v>
+        <v>222.76300000000001</v>
       </c>
       <c r="J33">
-        <v>1832.547</v>
+        <v>969.04300000000001</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>969.90099999999995</v>
+        <v>612.37</v>
       </c>
       <c r="O33">
-        <v>3596.134</v>
+        <v>1802.172</v>
       </c>
       <c r="P33">
-        <v>1901.269</v>
+        <v>1157.9390000000001</v>
       </c>
       <c r="Q33">
-        <v>-38.972000000000001</v>
+        <v>24.89</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4511.9089999999997</v>
+        <v>1362.972</v>
       </c>
       <c r="U33">
-        <v>518.721</v>
+        <v>166.49799999999999</v>
       </c>
       <c r="V33">
-        <v>248.81299999999999</v>
+        <v>62.786000000000001</v>
       </c>
       <c r="W33">
-        <v>-32.374000000000002</v>
+        <v>-6.33</v>
       </c>
       <c r="X33">
-        <v>-261.68</v>
+        <v>95.959000000000003</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>191.21299999999999</v>
+        <v>70.924000000000007</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>211.52</v>
+        <v>43.829000000000001</v>
       </c>
       <c r="D34">
-        <v>1271.328</v>
+        <v>623.74400000000003</v>
       </c>
       <c r="E34">
-        <v>791.10500000000002</v>
+        <v>406.012</v>
       </c>
       <c r="F34">
-        <v>436.06</v>
+        <v>212.23400000000001</v>
       </c>
       <c r="G34">
-        <v>1836.144</v>
+        <v>954.58600000000001</v>
       </c>
       <c r="H34">
-        <v>8662.2880000000005</v>
+        <v>3055.5419999999999</v>
       </c>
       <c r="I34">
-        <v>399.57100000000003</v>
+        <v>203.74199999999999</v>
       </c>
       <c r="J34">
-        <v>2273.837</v>
+        <v>1093.2429999999999</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>16.027999999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1258.704</v>
+        <v>447.51299999999998</v>
       </c>
       <c r="O34">
-        <v>4420.366</v>
+        <v>1767.77</v>
       </c>
       <c r="P34">
-        <v>2632.7130000000002</v>
+        <v>1111.681</v>
       </c>
       <c r="Q34">
-        <v>-164.74600000000001</v>
+        <v>-79.518000000000001</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>18200</v>
+        <v>11700</v>
       </c>
       <c r="T34">
-        <v>4241.9219999999996</v>
+        <v>1287.7719999999999</v>
       </c>
       <c r="U34">
-        <v>353.97500000000002</v>
+        <v>86.98</v>
       </c>
       <c r="V34">
-        <v>296.16300000000001</v>
+        <v>42.677</v>
       </c>
       <c r="W34">
-        <v>-31.884</v>
+        <v>-6.6360000000000001</v>
       </c>
       <c r="X34">
-        <v>330.26799999999997</v>
+        <v>-41.228999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>6.3230000000000004</v>
       </c>
       <c r="AA34">
-        <v>211.52</v>
+        <v>43.829000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>204.268</v>
+        <v>59.055</v>
       </c>
       <c r="D35">
-        <v>1287.691</v>
+        <v>552.86599999999999</v>
       </c>
       <c r="E35">
-        <v>839.47900000000004</v>
+        <v>376.89800000000002</v>
       </c>
       <c r="F35">
-        <v>436.38400000000001</v>
+        <v>182.22300000000001</v>
       </c>
       <c r="G35">
-        <v>1924.644</v>
+        <v>941.74400000000003</v>
       </c>
       <c r="H35">
-        <v>8891.4830000000002</v>
+        <v>3048.7240000000002</v>
       </c>
       <c r="I35">
-        <v>405.64800000000002</v>
+        <v>182.06200000000001</v>
       </c>
       <c r="J35">
-        <v>2368.1970000000001</v>
+        <v>1085.1389999999999</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>9.2390000000000008</v>
       </c>
       <c r="L35">
-        <v>-256.286</v>
+        <v>-7.3319999999999999</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-1.948</v>
       </c>
       <c r="N35">
-        <v>1007.228</v>
+        <v>418.46499999999997</v>
       </c>
       <c r="O35">
-        <v>4434.8620000000001</v>
+        <v>1722.7819999999999</v>
       </c>
       <c r="P35">
-        <v>2660.9270000000001</v>
+        <v>1094.3779999999999</v>
       </c>
       <c r="Q35">
-        <v>14.09</v>
+        <v>48.771999999999998</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4456.6210000000001</v>
+        <v>1325.942</v>
       </c>
       <c r="U35">
-        <v>368.065</v>
+        <v>135.75200000000001</v>
       </c>
       <c r="V35">
-        <v>196.25700000000001</v>
+        <v>110.39</v>
       </c>
       <c r="W35">
-        <v>-31.765999999999998</v>
+        <v>-6.4059999999999997</v>
       </c>
       <c r="X35">
-        <v>-165.86500000000001</v>
+        <v>-14.052</v>
       </c>
       <c r="Y35">
-        <v>146.93600000000001</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>204.268</v>
+        <v>59.055</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>215.50299999999999</v>
+        <v>51.813000000000002</v>
       </c>
       <c r="D36">
-        <v>1289.412</v>
+        <v>524.92899999999997</v>
       </c>
       <c r="E36">
-        <v>839.58500000000004</v>
+        <v>356.83</v>
       </c>
       <c r="F36">
-        <v>451.25900000000001</v>
+        <v>163.351</v>
       </c>
       <c r="G36">
-        <v>2127.1529999999998</v>
+        <v>912.30499999999995</v>
       </c>
       <c r="H36">
-        <v>9069.6020000000008</v>
+        <v>3112.922</v>
       </c>
       <c r="I36">
-        <v>390.44299999999998</v>
+        <v>176.494</v>
       </c>
       <c r="J36">
-        <v>2368.69</v>
+        <v>1053.886</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>4.218</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>978.55799999999999</v>
+        <v>389.86200000000002</v>
       </c>
       <c r="O36">
-        <v>4402.8209999999999</v>
+        <v>1688.8910000000001</v>
       </c>
       <c r="P36">
-        <v>2656.1410000000001</v>
+        <v>1058.9960000000001</v>
       </c>
       <c r="Q36">
-        <v>199.84700000000001</v>
+        <v>1.65</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>4666.7809999999999</v>
+        <v>1424.0309999999999</v>
       </c>
       <c r="U36">
-        <v>567.91200000000003</v>
+        <v>137.40199999999999</v>
       </c>
       <c r="V36">
-        <v>246.321</v>
+        <v>73.858000000000004</v>
       </c>
       <c r="W36">
-        <v>-31.849</v>
+        <v>-6.3579999999999997</v>
       </c>
       <c r="X36">
-        <v>-25.657</v>
+        <v>-67.296999999999997</v>
       </c>
       <c r="Y36">
-        <v>147.34399999999999</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>215.50299999999999</v>
+        <v>51.813000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>220.749</v>
+        <v>43.018000000000001</v>
       </c>
       <c r="D37">
-        <v>1276.633</v>
+        <v>497.06</v>
       </c>
       <c r="E37">
-        <v>839.971</v>
+        <v>349.18400000000003</v>
       </c>
       <c r="F37">
-        <v>453.37099999999998</v>
+        <v>152.40199999999999</v>
       </c>
       <c r="G37">
-        <v>2272.1840000000002</v>
+        <v>960.58799999999997</v>
       </c>
       <c r="H37">
-        <v>9219.7090000000007</v>
+        <v>3169.0149999999999</v>
       </c>
       <c r="I37">
-        <v>381.94499999999999</v>
+        <v>170.958</v>
       </c>
       <c r="J37">
-        <v>2229.252</v>
+        <v>974.28700000000003</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>4.5529999999999999</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1110.519</v>
+        <v>449.036</v>
       </c>
       <c r="O37">
-        <v>4353.7439999999997</v>
+        <v>1684.8779999999999</v>
       </c>
       <c r="P37">
-        <v>2609.2020000000002</v>
+        <v>1059.713</v>
       </c>
       <c r="Q37">
-        <v>167.464</v>
+        <v>63.561</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>4865.9650000000001</v>
+        <v>1484.1369999999999</v>
       </c>
       <c r="U37">
-        <v>735.37599999999998</v>
+        <v>200.96299999999999</v>
       </c>
       <c r="V37">
-        <v>329.63600000000002</v>
+        <v>71.698999999999998</v>
       </c>
       <c r="W37">
-        <v>-31.882999999999999</v>
+        <v>-6.3979999999999997</v>
       </c>
       <c r="X37">
-        <v>-16.404</v>
+        <v>-0.42299999999999999</v>
       </c>
       <c r="Y37">
-        <v>139.595</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>220.749</v>
+        <v>43.018000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>220.77699999999999</v>
+        <v>51.884</v>
       </c>
       <c r="D38">
-        <v>1304.8209999999999</v>
+        <v>523.5</v>
       </c>
       <c r="E38">
-        <v>817.79899999999998</v>
+        <v>331.38299999999998</v>
       </c>
       <c r="F38">
-        <v>446.64600000000002</v>
+        <v>164.42599999999999</v>
       </c>
       <c r="G38">
-        <v>2025.771</v>
+        <v>969.43</v>
       </c>
       <c r="H38">
-        <v>9844.5589999999993</v>
+        <v>3246.0320000000002</v>
       </c>
       <c r="I38">
-        <v>377.21899999999999</v>
+        <v>191.779</v>
       </c>
       <c r="J38">
-        <v>2271.2919999999999</v>
+        <v>955.88</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>4.0759999999999996</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1425.8579999999999</v>
+        <v>424.28199999999998</v>
       </c>
       <c r="O38">
-        <v>4729.067</v>
+        <v>1679.008</v>
       </c>
       <c r="P38">
-        <v>2954.386</v>
+        <v>1041.681</v>
       </c>
       <c r="Q38">
-        <v>-342.346</v>
+        <v>45.393000000000001</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>18100</v>
+        <v>10100</v>
       </c>
       <c r="T38">
-        <v>5115.4920000000002</v>
+        <v>1567.0239999999999</v>
       </c>
       <c r="U38">
-        <v>393.03</v>
+        <v>246.35599999999999</v>
       </c>
       <c r="V38">
-        <v>342.20800000000003</v>
+        <v>108.724</v>
       </c>
       <c r="W38">
-        <v>-31.998000000000001</v>
+        <v>-6.4169999999999998</v>
       </c>
       <c r="X38">
-        <v>280.839</v>
+        <v>-20.747</v>
       </c>
       <c r="Y38">
-        <v>142.62</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-0.63800000000000001</v>
       </c>
       <c r="AA38">
-        <v>220.77699999999999</v>
+        <v>51.884</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>280.61599999999999</v>
+        <v>57.945</v>
       </c>
       <c r="D39">
-        <v>1202.2180000000001</v>
+        <v>556.66200000000003</v>
       </c>
       <c r="E39">
-        <v>792.99099999999999</v>
+        <v>356.18700000000001</v>
       </c>
       <c r="F39">
-        <v>421.27100000000002</v>
+        <v>180.93799999999999</v>
       </c>
       <c r="G39">
-        <v>2774.491</v>
+        <v>996.28099999999995</v>
       </c>
       <c r="H39">
-        <v>10601.946</v>
+        <v>3225.0169999999998</v>
       </c>
       <c r="I39">
-        <v>373.9</v>
+        <v>203.53200000000001</v>
       </c>
       <c r="J39">
-        <v>2741.7979999999998</v>
+        <v>946.44799999999998</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>3.4249999999999998</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.79700000000000004</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1477.671</v>
+        <v>449.32799999999997</v>
       </c>
       <c r="O39">
-        <v>5275.9430000000002</v>
+        <v>1699.1369999999999</v>
       </c>
       <c r="P39">
-        <v>3426.951</v>
+        <v>1026.6690000000001</v>
       </c>
       <c r="Q39">
-        <v>860.35199999999998</v>
+        <v>9.2759999999999998</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5326.0029999999997</v>
+        <v>1525.88</v>
       </c>
       <c r="U39">
-        <v>1253.3820000000001</v>
+        <v>255.63200000000001</v>
       </c>
       <c r="V39">
-        <v>270.75200000000001</v>
+        <v>91.863</v>
       </c>
       <c r="W39">
-        <v>-41.164999999999999</v>
+        <v>-6.3479999999999999</v>
       </c>
       <c r="X39">
-        <v>486.649</v>
+        <v>-70.42</v>
       </c>
       <c r="Y39">
-        <v>132.36000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>280.61599999999999</v>
+        <v>57.945</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>166.21700000000001</v>
+        <v>67.391000000000005</v>
       </c>
       <c r="D40">
-        <v>1011.922</v>
+        <v>591.94100000000003</v>
       </c>
       <c r="E40">
-        <v>687.96400000000006</v>
+        <v>367.12700000000001</v>
       </c>
       <c r="F40">
-        <v>342.72699999999998</v>
+        <v>196.44200000000001</v>
       </c>
       <c r="G40">
-        <v>2517.1350000000002</v>
+        <v>984.94500000000005</v>
       </c>
       <c r="H40">
-        <v>10311.172</v>
+        <v>3267.0479999999998</v>
       </c>
       <c r="I40">
-        <v>337.46499999999997</v>
+        <v>213.92699999999999</v>
       </c>
       <c r="J40">
-        <v>2753.2539999999999</v>
+        <v>937.29200000000003</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1017.453</v>
+        <v>462.392</v>
       </c>
       <c r="O40">
-        <v>4824.732</v>
+        <v>1713.672</v>
       </c>
       <c r="P40">
-        <v>3039.1579999999999</v>
+        <v>1014.087</v>
       </c>
       <c r="Q40">
-        <v>-122.407</v>
+        <v>-24.838999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>5486.44</v>
+        <v>1553.376</v>
       </c>
       <c r="U40">
-        <v>1130.9749999999999</v>
+        <v>230.79300000000001</v>
       </c>
       <c r="V40">
-        <v>314.61599999999999</v>
+        <v>88.519000000000005</v>
       </c>
       <c r="W40">
-        <v>-41.234000000000002</v>
+        <v>-6.3239999999999998</v>
       </c>
       <c r="X40">
-        <v>-430.25299999999999</v>
+        <v>-16.29</v>
       </c>
       <c r="Y40">
-        <v>127.354</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>166.21700000000001</v>
+        <v>67.391000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>204.58099999999999</v>
+        <v>77.356999999999999</v>
       </c>
       <c r="D41">
-        <v>1126.942</v>
+        <v>644.37400000000002</v>
       </c>
       <c r="E41">
-        <v>682.93</v>
+        <v>390.113</v>
       </c>
       <c r="F41">
-        <v>394.23700000000002</v>
+        <v>215.29900000000001</v>
       </c>
       <c r="G41">
-        <v>2643.018</v>
+        <v>930.93700000000001</v>
       </c>
       <c r="H41">
-        <v>10433.386</v>
+        <v>3579.3049999999998</v>
       </c>
       <c r="I41">
-        <v>324.83699999999999</v>
+        <v>227.56700000000001</v>
       </c>
       <c r="J41">
-        <v>2295.81</v>
+        <v>1074.671</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>31.120999999999999</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1403.4939999999999</v>
+        <v>463.339</v>
       </c>
       <c r="O41">
-        <v>4729.1940000000004</v>
+        <v>1911.201</v>
       </c>
       <c r="P41">
-        <v>2973.3449999999998</v>
+        <v>1107.0219999999999</v>
       </c>
       <c r="Q41">
-        <v>173.863</v>
+        <v>-95.775999999999996</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>5704.192</v>
+        <v>1668.104</v>
       </c>
       <c r="U41">
-        <v>1304.838</v>
+        <v>135.017</v>
       </c>
       <c r="V41">
-        <v>309.73</v>
+        <v>114.292</v>
       </c>
       <c r="W41">
-        <v>-41.290999999999997</v>
+        <v>-6.3310000000000004</v>
       </c>
       <c r="X41">
-        <v>-141.114</v>
+        <v>74.912999999999997</v>
       </c>
       <c r="Y41">
-        <v>129.286</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>204.58099999999999</v>
+        <v>77.356999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>81.239000000000004</v>
+      </c>
+      <c r="D42">
+        <v>677.97500000000002</v>
+      </c>
+      <c r="E42">
+        <v>399.91300000000001</v>
+      </c>
+      <c r="F42">
+        <v>231.381</v>
+      </c>
+      <c r="G42">
+        <v>974.49199999999996</v>
+      </c>
+      <c r="H42">
+        <v>3818.915</v>
+      </c>
+      <c r="I42">
+        <v>236.6</v>
+      </c>
+      <c r="J42">
+        <v>1071.3599999999999</v>
+      </c>
+      <c r="K42">
+        <v>95.903999999999996</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>550.85900000000004</v>
+      </c>
+      <c r="O42">
+        <v>2043.711</v>
+      </c>
+      <c r="P42">
+        <v>1168.5119999999999</v>
+      </c>
+      <c r="Q42">
+        <v>28.190999999999999</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>11600</v>
+      </c>
+      <c r="T42">
+        <v>1775.204</v>
+      </c>
+      <c r="U42">
+        <v>163.208</v>
+      </c>
+      <c r="V42">
+        <v>128.339</v>
+      </c>
+      <c r="W42">
+        <v>-9.5510000000000002</v>
+      </c>
+      <c r="X42">
+        <v>74.426000000000002</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-0.61899999999999999</v>
+      </c>
+      <c r="AA42">
+        <v>81.239000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>90.435000000000002</v>
+      </c>
+      <c r="D43">
+        <v>717.78300000000002</v>
+      </c>
+      <c r="E43">
+        <v>434.517</v>
+      </c>
+      <c r="F43">
+        <v>244.97900000000001</v>
+      </c>
+      <c r="G43">
+        <v>1022.826</v>
+      </c>
+      <c r="H43">
+        <v>3893.2979999999998</v>
+      </c>
+      <c r="I43">
+        <v>261.57900000000001</v>
+      </c>
+      <c r="J43">
+        <v>1080.6959999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>-94.498999999999995</v>
+      </c>
+      <c r="M43">
+        <v>-0.627</v>
+      </c>
+      <c r="N43">
+        <v>491.02300000000002</v>
+      </c>
+      <c r="O43">
+        <v>2011.079</v>
+      </c>
+      <c r="P43">
+        <v>1083.348</v>
+      </c>
+      <c r="Q43">
+        <v>-8.1989999999999998</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1882.2190000000001</v>
+      </c>
+      <c r="U43">
+        <v>155.00899999999999</v>
+      </c>
+      <c r="V43">
+        <v>103.64</v>
+      </c>
+      <c r="W43">
+        <v>-9.5589999999999993</v>
+      </c>
+      <c r="X43">
+        <v>-101.399</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>90.435000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>94.144000000000005</v>
+      </c>
+      <c r="D44">
+        <v>758.83399999999995</v>
+      </c>
+      <c r="E44">
+        <v>439.86500000000001</v>
+      </c>
+      <c r="F44">
+        <v>258.87799999999999</v>
+      </c>
+      <c r="G44">
+        <v>1083.1320000000001</v>
+      </c>
+      <c r="H44">
+        <v>4154.7740000000003</v>
+      </c>
+      <c r="I44">
+        <v>266.709</v>
+      </c>
+      <c r="J44">
+        <v>1083.2840000000001</v>
+      </c>
+      <c r="K44">
+        <v>125</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>601.89499999999998</v>
+      </c>
+      <c r="O44">
+        <v>2169.1309999999999</v>
+      </c>
+      <c r="P44">
+        <v>1210.9970000000001</v>
+      </c>
+      <c r="Q44">
+        <v>41.584000000000003</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1985.643</v>
+      </c>
+      <c r="U44">
+        <v>196.59299999999999</v>
+      </c>
+      <c r="V44">
+        <v>115.155</v>
+      </c>
+      <c r="W44">
+        <v>-9.6059999999999999</v>
+      </c>
+      <c r="X44">
+        <v>117.054</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>94.144000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>97.977999999999994</v>
+      </c>
+      <c r="D45">
+        <v>750.54600000000005</v>
+      </c>
+      <c r="E45">
+        <v>425.01100000000002</v>
+      </c>
+      <c r="F45">
+        <v>257.27999999999997</v>
+      </c>
+      <c r="G45">
+        <v>1080.537</v>
+      </c>
+      <c r="H45">
+        <v>4116.3010000000004</v>
+      </c>
+      <c r="I45">
+        <v>263.14299999999997</v>
+      </c>
+      <c r="J45">
+        <v>1070.54</v>
+      </c>
+      <c r="K45">
+        <v>34.4</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>518.20699999999999</v>
+      </c>
+      <c r="O45">
+        <v>2068.4409999999998</v>
+      </c>
+      <c r="P45">
+        <v>1111.175</v>
+      </c>
+      <c r="Q45">
+        <v>21.681000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2047.86</v>
+      </c>
+      <c r="U45">
+        <v>218.274</v>
+      </c>
+      <c r="V45">
+        <v>137.04400000000001</v>
+      </c>
+      <c r="W45">
+        <v>-9.6349999999999998</v>
+      </c>
+      <c r="X45">
+        <v>-93.867999999999995</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>97.977999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>101.907</v>
+      </c>
+      <c r="D46">
+        <v>762.75099999999998</v>
+      </c>
+      <c r="E46">
+        <v>438.245</v>
+      </c>
+      <c r="F46">
+        <v>272.99799999999999</v>
+      </c>
+      <c r="G46">
+        <v>1059.1189999999999</v>
+      </c>
+      <c r="H46">
+        <v>4319.49</v>
+      </c>
+      <c r="I46">
+        <v>283.06799999999998</v>
+      </c>
+      <c r="J46">
+        <v>1123.4159999999999</v>
+      </c>
+      <c r="K46">
+        <v>135.892</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>628.875</v>
+      </c>
+      <c r="O46">
+        <v>2266.6849999999999</v>
+      </c>
+      <c r="P46">
+        <v>1263.924</v>
+      </c>
+      <c r="Q46">
+        <v>-47.881999999999998</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>12200</v>
+      </c>
+      <c r="T46">
+        <v>2052.8049999999998</v>
+      </c>
+      <c r="U46">
+        <v>170.392</v>
+      </c>
+      <c r="V46">
+        <v>152.726</v>
+      </c>
+      <c r="W46">
+        <v>-9.5660000000000007</v>
+      </c>
+      <c r="X46">
+        <v>110.071</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>101.907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>110.15</v>
+      </c>
+      <c r="D47">
+        <v>827.15200000000004</v>
+      </c>
+      <c r="E47">
+        <v>468.32100000000003</v>
+      </c>
+      <c r="F47">
+        <v>290.86900000000003</v>
+      </c>
+      <c r="G47">
+        <v>1152.8610000000001</v>
+      </c>
+      <c r="H47">
+        <v>4608.5919999999996</v>
+      </c>
+      <c r="I47">
+        <v>291.02600000000001</v>
+      </c>
+      <c r="J47">
+        <v>1133.165</v>
+      </c>
+      <c r="K47">
+        <v>221.328</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.17</v>
+      </c>
+      <c r="N47">
+        <v>750.14200000000005</v>
+      </c>
+      <c r="O47">
+        <v>2419.1590000000001</v>
+      </c>
+      <c r="P47">
+        <v>1360.3409999999999</v>
+      </c>
+      <c r="Q47">
+        <v>48.911999999999999</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2189.433</v>
+      </c>
+      <c r="U47">
+        <v>219.304</v>
+      </c>
+      <c r="V47">
+        <v>140.88499999999999</v>
+      </c>
+      <c r="W47">
+        <v>-9.5879999999999992</v>
+      </c>
+      <c r="X47">
+        <v>87.192999999999998</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>110.15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>113.687</v>
+      </c>
+      <c r="D48">
+        <v>825.89800000000002</v>
+      </c>
+      <c r="E48">
+        <v>482.79899999999998</v>
+      </c>
+      <c r="F48">
+        <v>294.14499999999998</v>
+      </c>
+      <c r="G48">
+        <v>1132.01</v>
+      </c>
+      <c r="H48">
+        <v>4885.2039999999997</v>
+      </c>
+      <c r="I48">
+        <v>299.73099999999999</v>
+      </c>
+      <c r="J48">
+        <v>1122.893</v>
+      </c>
+      <c r="K48">
+        <v>382.60599999999999</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>896.38</v>
+      </c>
+      <c r="O48">
+        <v>2594.65</v>
+      </c>
+      <c r="P48">
+        <v>1511.6010000000001</v>
+      </c>
+      <c r="Q48">
+        <v>-55.709000000000003</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>2290.5540000000001</v>
+      </c>
+      <c r="U48">
+        <v>163.595</v>
+      </c>
+      <c r="V48">
+        <v>115.749</v>
+      </c>
+      <c r="W48">
+        <v>-14.467000000000001</v>
+      </c>
+      <c r="X48">
+        <v>168.07599999999999</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>113.687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>115.39700000000001</v>
+      </c>
+      <c r="D49">
+        <v>839.37300000000005</v>
+      </c>
+      <c r="E49">
+        <v>492.86399999999998</v>
+      </c>
+      <c r="F49">
+        <v>297.91899999999998</v>
+      </c>
+      <c r="G49">
+        <v>1135.8320000000001</v>
+      </c>
+      <c r="H49">
+        <v>4893.5110000000004</v>
+      </c>
+      <c r="I49">
+        <v>288.221</v>
+      </c>
+      <c r="J49">
+        <v>1129.383</v>
+      </c>
+      <c r="K49">
+        <v>235.43299999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>762.39300000000003</v>
+      </c>
+      <c r="O49">
+        <v>2469.643</v>
+      </c>
+      <c r="P49">
+        <v>1372.164</v>
+      </c>
+      <c r="Q49">
+        <v>-0.74399999999999999</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2423.8679999999999</v>
+      </c>
+      <c r="U49">
+        <v>162.851</v>
+      </c>
+      <c r="V49">
+        <v>162.54</v>
+      </c>
+      <c r="W49">
+        <v>-14.500999999999999</v>
+      </c>
+      <c r="X49">
+        <v>-153.82599999999999</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>115.39700000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>119.898</v>
+      </c>
+      <c r="D50">
+        <v>841.79</v>
+      </c>
+      <c r="E50">
+        <v>507.85</v>
+      </c>
+      <c r="F50">
+        <v>297.14800000000002</v>
+      </c>
+      <c r="G50">
+        <v>1164.7429999999999</v>
+      </c>
+      <c r="H50">
+        <v>5190.0559999999996</v>
+      </c>
+      <c r="I50">
+        <v>321.18299999999999</v>
+      </c>
+      <c r="J50">
+        <v>1133.1210000000001</v>
+      </c>
+      <c r="K50">
+        <v>313.47300000000001</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>879.96900000000005</v>
+      </c>
+      <c r="O50">
+        <v>2654.9050000000002</v>
+      </c>
+      <c r="P50">
+        <v>1453.7750000000001</v>
+      </c>
+      <c r="Q50">
+        <v>-4.867</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>13700</v>
+      </c>
+      <c r="T50">
+        <v>2535.1509999999998</v>
+      </c>
+      <c r="U50">
+        <v>157.98400000000001</v>
+      </c>
+      <c r="V50">
+        <v>193.29</v>
+      </c>
+      <c r="W50">
+        <v>-14.526999999999999</v>
+      </c>
+      <c r="X50">
+        <v>73.096000000000004</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>119.898</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>125.146</v>
+      </c>
+      <c r="D51">
+        <v>882.85299999999995</v>
+      </c>
+      <c r="E51">
+        <v>529.18200000000002</v>
+      </c>
+      <c r="F51">
+        <v>308.779</v>
+      </c>
+      <c r="G51">
+        <v>1214.164</v>
+      </c>
+      <c r="H51">
+        <v>5174.4750000000004</v>
+      </c>
+      <c r="I51">
+        <v>342.565</v>
+      </c>
+      <c r="J51">
+        <v>1115.6030000000001</v>
+      </c>
+      <c r="K51">
+        <v>202.273</v>
+      </c>
+      <c r="L51">
+        <v>-112.468</v>
+      </c>
+      <c r="M51">
+        <v>-0.48599999999999999</v>
+      </c>
+      <c r="N51">
+        <v>799.13699999999994</v>
+      </c>
+      <c r="O51">
+        <v>2552.364</v>
+      </c>
+      <c r="P51">
+        <v>1323.6949999999999</v>
+      </c>
+      <c r="Q51">
+        <v>19.350999999999999</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2622.1109999999999</v>
+      </c>
+      <c r="U51">
+        <v>177.33500000000001</v>
+      </c>
+      <c r="V51">
+        <v>156.81800000000001</v>
+      </c>
+      <c r="W51">
+        <v>-14.567</v>
+      </c>
+      <c r="X51">
+        <v>-126.247</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>125.146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>128.321</v>
+      </c>
+      <c r="D52">
+        <v>878.80899999999997</v>
+      </c>
+      <c r="E52">
+        <v>521.54700000000003</v>
+      </c>
+      <c r="F52">
+        <v>311.21100000000001</v>
+      </c>
+      <c r="G52">
+        <v>1243.8009999999999</v>
+      </c>
+      <c r="H52">
+        <v>5192.5339999999997</v>
+      </c>
+      <c r="I52">
+        <v>332.03800000000001</v>
+      </c>
+      <c r="J52">
+        <v>1118.086</v>
+      </c>
+      <c r="K52">
+        <v>118.2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>679.45600000000002</v>
+      </c>
+      <c r="O52">
+        <v>2435.3910000000001</v>
+      </c>
+      <c r="P52">
+        <v>1243.7439999999999</v>
+      </c>
+      <c r="Q52">
+        <v>30.279</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2757.143</v>
+      </c>
+      <c r="U52">
+        <v>207.614</v>
+      </c>
+      <c r="V52">
+        <v>128.15799999999999</v>
+      </c>
+      <c r="W52">
+        <v>-14.587999999999999</v>
+      </c>
+      <c r="X52">
+        <v>-87.83</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>128.321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>127.864</v>
+      </c>
+      <c r="D53">
+        <v>890.00599999999997</v>
+      </c>
+      <c r="E53">
+        <v>532.09199999999998</v>
+      </c>
+      <c r="F53">
+        <v>317.88099999999997</v>
+      </c>
+      <c r="G53">
+        <v>1308.557</v>
+      </c>
+      <c r="H53">
+        <v>5461.2219999999998</v>
+      </c>
+      <c r="I53">
+        <v>330.80099999999999</v>
+      </c>
+      <c r="J53">
+        <v>1135.164</v>
+      </c>
+      <c r="K53">
+        <v>160</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>732.221</v>
+      </c>
+      <c r="O53">
+        <v>2526.9940000000001</v>
+      </c>
+      <c r="P53">
+        <v>1300.0899999999999</v>
+      </c>
+      <c r="Q53">
+        <v>47.264000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2934.2280000000001</v>
+      </c>
+      <c r="U53">
+        <v>254.87799999999999</v>
+      </c>
+      <c r="V53">
+        <v>166.131</v>
+      </c>
+      <c r="W53">
+        <v>-14.603999999999999</v>
+      </c>
+      <c r="X53">
+        <v>39.393999999999998</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>127.864</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>135.66800000000001</v>
+      </c>
+      <c r="D54">
+        <v>942.46799999999996</v>
+      </c>
+      <c r="E54">
+        <v>536.70100000000002</v>
+      </c>
+      <c r="F54">
+        <v>332.62299999999999</v>
+      </c>
+      <c r="G54">
+        <v>1369.1289999999999</v>
+      </c>
+      <c r="H54">
+        <v>5877.902</v>
+      </c>
+      <c r="I54">
+        <v>347.63799999999998</v>
+      </c>
+      <c r="J54">
+        <v>1141.75</v>
+      </c>
+      <c r="K54">
+        <v>268.76400000000001</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>874.54499999999996</v>
+      </c>
+      <c r="O54">
+        <v>2741.7809999999999</v>
+      </c>
+      <c r="P54">
+        <v>1415.0650000000001</v>
+      </c>
+      <c r="Q54">
+        <v>40.325000000000003</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>14500</v>
+      </c>
+      <c r="T54">
+        <v>3136.1210000000001</v>
+      </c>
+      <c r="U54">
+        <v>295.20299999999997</v>
+      </c>
+      <c r="V54">
+        <v>209.55199999999999</v>
+      </c>
+      <c r="W54">
+        <v>-14.646000000000001</v>
+      </c>
+      <c r="X54">
+        <v>104.399</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>135.66800000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>140.58600000000001</v>
+      </c>
+      <c r="D55">
+        <v>975.29200000000003</v>
+      </c>
+      <c r="E55">
+        <v>592.40700000000004</v>
+      </c>
+      <c r="F55">
+        <v>350.12200000000001</v>
+      </c>
+      <c r="G55">
+        <v>1434.171</v>
+      </c>
+      <c r="H55">
+        <v>6088.8429999999998</v>
+      </c>
+      <c r="I55">
+        <v>370.04700000000003</v>
+      </c>
+      <c r="J55">
+        <v>1142.818</v>
+      </c>
+      <c r="K55">
+        <v>256.89699999999999</v>
+      </c>
+      <c r="L55">
+        <v>-6.516</v>
+      </c>
+      <c r="M55">
+        <v>-0.221</v>
+      </c>
+      <c r="N55">
+        <v>931.80499999999995</v>
+      </c>
+      <c r="O55">
+        <v>2816.2109999999998</v>
+      </c>
+      <c r="P55">
+        <v>1407.8869999999999</v>
+      </c>
+      <c r="Q55">
+        <v>-29.867999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>3272.6320000000001</v>
+      </c>
+      <c r="U55">
+        <v>265.33499999999998</v>
+      </c>
+      <c r="V55">
+        <v>160.96100000000001</v>
+      </c>
+      <c r="W55">
+        <v>-14.662000000000001</v>
+      </c>
+      <c r="X55">
+        <v>-14.914</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>140.58600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>150.06299999999999</v>
+      </c>
+      <c r="D56">
+        <v>990.71799999999996</v>
+      </c>
+      <c r="E56">
+        <v>594.15099999999995</v>
+      </c>
+      <c r="F56">
+        <v>360.07299999999998</v>
+      </c>
+      <c r="G56">
+        <v>1530.67</v>
+      </c>
+      <c r="H56">
+        <v>6485.0029999999997</v>
+      </c>
+      <c r="I56">
+        <v>382.57400000000001</v>
+      </c>
+      <c r="J56">
+        <v>1148.248</v>
+      </c>
+      <c r="K56">
+        <v>453.33699999999999</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1121.825</v>
+      </c>
+      <c r="O56">
+        <v>3063.085</v>
+      </c>
+      <c r="P56">
+        <v>1602.6659999999999</v>
+      </c>
+      <c r="Q56">
+        <v>17.436</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>3421.9180000000001</v>
+      </c>
+      <c r="U56">
+        <v>282.77100000000002</v>
+      </c>
+      <c r="V56">
+        <v>155.078</v>
+      </c>
+      <c r="W56">
+        <v>-22.024000000000001</v>
+      </c>
+      <c r="X56">
+        <v>173.04499999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>150.06299999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>141.81100000000001</v>
+      </c>
+      <c r="D57">
+        <v>1031.8109999999999</v>
+      </c>
+      <c r="E57">
+        <v>593.452</v>
+      </c>
+      <c r="F57">
+        <v>367.77199999999999</v>
+      </c>
+      <c r="G57">
+        <v>1590.13</v>
+      </c>
+      <c r="H57">
+        <v>6571.0609999999997</v>
+      </c>
+      <c r="I57">
+        <v>381.82</v>
+      </c>
+      <c r="J57">
+        <v>1473.482</v>
+      </c>
+      <c r="K57">
+        <v>5.36</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>831.70899999999995</v>
+      </c>
+      <c r="O57">
+        <v>3103.2539999999999</v>
+      </c>
+      <c r="P57">
+        <v>1636.684</v>
+      </c>
+      <c r="Q57">
+        <v>86.841999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>3467.8069999999998</v>
+      </c>
+      <c r="U57">
+        <v>369.613</v>
+      </c>
+      <c r="V57">
+        <v>196.61500000000001</v>
+      </c>
+      <c r="W57">
+        <v>-22.04</v>
+      </c>
+      <c r="X57">
+        <v>35.804000000000002</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>141.81100000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>152</v>
+      </c>
+      <c r="D58">
+        <v>1024.143</v>
+      </c>
+      <c r="E58">
+        <v>585.46199999999999</v>
+      </c>
+      <c r="F58">
+        <v>365.88</v>
+      </c>
+      <c r="G58">
+        <v>1578.604</v>
+      </c>
+      <c r="H58">
+        <v>6420.9629999999997</v>
+      </c>
+      <c r="I58">
+        <v>386.20699999999999</v>
+      </c>
+      <c r="J58">
+        <v>1427.825</v>
+      </c>
+      <c r="K58">
+        <v>88.1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>936.14400000000001</v>
+      </c>
+      <c r="O58">
+        <v>3181.402</v>
+      </c>
+      <c r="P58">
+        <v>1714.0260000000001</v>
+      </c>
+      <c r="Q58">
+        <v>8.0020000000000007</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>15400</v>
+      </c>
+      <c r="T58">
+        <v>3239.5610000000001</v>
+      </c>
+      <c r="U58">
+        <v>377.61500000000001</v>
+      </c>
+      <c r="V58">
+        <v>213.30799999999999</v>
+      </c>
+      <c r="W58">
+        <v>-21.824999999999999</v>
+      </c>
+      <c r="X58">
+        <v>-169.79599999999999</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>142.107</v>
+      </c>
+      <c r="D59">
+        <v>984.05899999999997</v>
+      </c>
+      <c r="E59">
+        <v>592.30100000000004</v>
+      </c>
+      <c r="F59">
+        <v>363.89400000000001</v>
+      </c>
+      <c r="G59">
+        <v>1608.7539999999999</v>
+      </c>
+      <c r="H59">
+        <v>6335.24</v>
+      </c>
+      <c r="I59">
+        <v>381.05399999999997</v>
+      </c>
+      <c r="J59">
+        <v>1418.6379999999999</v>
+      </c>
+      <c r="K59">
+        <v>70</v>
+      </c>
+      <c r="L59">
+        <v>-24.704000000000001</v>
+      </c>
+      <c r="M59">
+        <v>-0.45</v>
+      </c>
+      <c r="N59">
+        <v>898.50199999999995</v>
+      </c>
+      <c r="O59">
+        <v>3071.3780000000002</v>
+      </c>
+      <c r="P59">
+        <v>1672.6759999999999</v>
+      </c>
+      <c r="Q59">
+        <v>28.972000000000001</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>3263.8620000000001</v>
+      </c>
+      <c r="U59">
+        <v>406.58699999999999</v>
+      </c>
+      <c r="V59">
+        <v>121.926</v>
+      </c>
+      <c r="W59">
+        <v>-21.641999999999999</v>
+      </c>
+      <c r="X59">
+        <v>-53.244999999999997</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>142.107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>155.51300000000001</v>
+      </c>
+      <c r="D60">
+        <v>1003.726</v>
+      </c>
+      <c r="E60">
+        <v>619.08000000000004</v>
+      </c>
+      <c r="F60">
+        <v>369.80099999999999</v>
+      </c>
+      <c r="G60">
+        <v>1599.3420000000001</v>
+      </c>
+      <c r="H60">
+        <v>6557.8109999999997</v>
+      </c>
+      <c r="I60">
+        <v>384.25400000000002</v>
+      </c>
+      <c r="J60">
+        <v>1481.9059999999999</v>
+      </c>
+      <c r="K60">
+        <v>183.90299999999999</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>830.13099999999997</v>
+      </c>
+      <c r="O60">
+        <v>3104.4769999999999</v>
+      </c>
+      <c r="P60">
+        <v>1665.809</v>
+      </c>
+      <c r="Q60">
+        <v>-79.998999999999995</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>3453.3339999999998</v>
+      </c>
+      <c r="U60">
+        <v>326.58800000000002</v>
+      </c>
+      <c r="V60">
+        <v>163.46199999999999</v>
+      </c>
+      <c r="W60">
+        <v>-21.701000000000001</v>
+      </c>
+      <c r="X60">
+        <v>-44.96</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>155.51300000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>156.398</v>
+      </c>
+      <c r="D61">
+        <v>998.52700000000004</v>
+      </c>
+      <c r="E61">
+        <v>610.01900000000001</v>
+      </c>
+      <c r="F61">
+        <v>366.73700000000002</v>
+      </c>
+      <c r="G61">
+        <v>1590.74</v>
+      </c>
+      <c r="H61">
+        <v>6644.0240000000003</v>
+      </c>
+      <c r="I61">
+        <v>375.18700000000001</v>
+      </c>
+      <c r="J61">
+        <v>1621.8119999999999</v>
+      </c>
+      <c r="K61">
+        <v>257.3</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>925.47699999999998</v>
+      </c>
+      <c r="O61">
+        <v>3328.7550000000001</v>
+      </c>
+      <c r="P61">
+        <v>1917.0709999999999</v>
+      </c>
+      <c r="Q61">
+        <v>1.446</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>3315.2689999999998</v>
+      </c>
+      <c r="U61">
+        <v>328.03399999999999</v>
+      </c>
+      <c r="V61">
+        <v>187.75399999999999</v>
+      </c>
+      <c r="W61">
+        <v>-21.318000000000001</v>
+      </c>
+      <c r="X61">
+        <v>-2.9140000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>156.398</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>136.84100000000001</v>
+      </c>
+      <c r="D62">
+        <v>987.98299999999995</v>
+      </c>
+      <c r="E62">
+        <v>603.29499999999996</v>
+      </c>
+      <c r="F62">
+        <v>291.67599999999999</v>
+      </c>
+      <c r="G62">
+        <v>1618.827</v>
+      </c>
+      <c r="H62">
+        <v>6660.45</v>
+      </c>
+      <c r="I62">
+        <v>365.35500000000002</v>
+      </c>
+      <c r="J62">
+        <v>1553.116</v>
+      </c>
+      <c r="K62">
+        <v>312.99900000000002</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1024.021</v>
+      </c>
+      <c r="O62">
+        <v>3405.8240000000001</v>
+      </c>
+      <c r="P62">
+        <v>1938.04</v>
+      </c>
+      <c r="Q62">
+        <v>52.970999999999997</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>15400</v>
+      </c>
+      <c r="T62">
+        <v>3254.6260000000002</v>
+      </c>
+      <c r="U62">
+        <v>381.005</v>
+      </c>
+      <c r="V62">
+        <v>199.398</v>
+      </c>
+      <c r="W62">
+        <v>-21.327000000000002</v>
+      </c>
+      <c r="X62">
+        <v>-115.845</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>136.84100000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>134.16999999999999</v>
+      </c>
+      <c r="D63">
+        <v>944.39800000000002</v>
+      </c>
+      <c r="E63">
+        <v>606.88800000000003</v>
+      </c>
+      <c r="F63">
+        <v>320.71699999999998</v>
+      </c>
+      <c r="G63">
+        <v>1662.59</v>
+      </c>
+      <c r="H63">
+        <v>6994.7020000000002</v>
+      </c>
+      <c r="I63">
+        <v>366.23599999999999</v>
+      </c>
+      <c r="J63">
+        <v>1552.674</v>
+      </c>
+      <c r="K63">
+        <v>600.91700000000003</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1290.5540000000001</v>
+      </c>
+      <c r="O63">
+        <v>3698.0160000000001</v>
+      </c>
+      <c r="P63">
+        <v>2218.36</v>
+      </c>
+      <c r="Q63">
+        <v>5.9349999999999996</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>3296.6860000000001</v>
+      </c>
+      <c r="U63">
+        <v>386.94</v>
+      </c>
+      <c r="V63">
+        <v>151.619</v>
+      </c>
+      <c r="W63">
+        <v>-21.006</v>
+      </c>
+      <c r="X63">
+        <v>149.63800000000001</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>134.16999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>138.19300000000001</v>
+      </c>
+      <c r="D64">
+        <v>977.70600000000002</v>
+      </c>
+      <c r="E64">
+        <v>596.58900000000006</v>
+      </c>
+      <c r="F64">
+        <v>337.995</v>
+      </c>
+      <c r="G64">
+        <v>1707.6220000000001</v>
+      </c>
+      <c r="H64">
+        <v>6955.78</v>
+      </c>
+      <c r="I64">
+        <v>358.423</v>
+      </c>
+      <c r="J64">
+        <v>1542.8230000000001</v>
+      </c>
+      <c r="K64">
+        <v>542.95000000000005</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1207.462</v>
+      </c>
+      <c r="O64">
+        <v>3599.203</v>
+      </c>
+      <c r="P64">
+        <v>2142.152</v>
+      </c>
+      <c r="Q64">
+        <v>69.254999999999995</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>3356.5770000000002</v>
+      </c>
+      <c r="U64">
+        <v>456.19499999999999</v>
+      </c>
+      <c r="V64">
+        <v>188.94</v>
+      </c>
+      <c r="W64">
+        <v>-20.95</v>
+      </c>
+      <c r="X64">
+        <v>-93.131</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>138.19300000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>130.68700000000001</v>
+      </c>
+      <c r="D65">
+        <v>945.03</v>
+      </c>
+      <c r="E65">
+        <v>595.14300000000003</v>
+      </c>
+      <c r="F65">
+        <v>314.286</v>
+      </c>
+      <c r="G65">
+        <v>1696.89</v>
+      </c>
+      <c r="H65">
+        <v>6977.0619999999999</v>
+      </c>
+      <c r="I65">
+        <v>345.49</v>
+      </c>
+      <c r="J65">
+        <v>1540.742</v>
+      </c>
+      <c r="K65">
+        <v>556.26400000000001</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1216.7380000000001</v>
+      </c>
+      <c r="O65">
+        <v>3603.8629999999998</v>
+      </c>
+      <c r="P65">
+        <v>2154.4259999999999</v>
+      </c>
+      <c r="Q65">
+        <v>-10.726000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>3373.1990000000001</v>
+      </c>
+      <c r="U65">
+        <v>445.46899999999999</v>
+      </c>
+      <c r="V65">
+        <v>168.958</v>
+      </c>
+      <c r="W65">
+        <v>-20.748999999999999</v>
+      </c>
+      <c r="X65">
+        <v>-97.894999999999996</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>130.68700000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>109.108</v>
+      </c>
+      <c r="D66">
+        <v>972.95299999999997</v>
+      </c>
+      <c r="E66">
+        <v>592.32600000000002</v>
+      </c>
+      <c r="F66">
+        <v>329.76900000000001</v>
+      </c>
+      <c r="G66">
+        <v>1928.19</v>
+      </c>
+      <c r="H66">
+        <v>7100.674</v>
+      </c>
+      <c r="I66">
+        <v>369.53699999999998</v>
+      </c>
+      <c r="J66">
+        <v>2062.6439999999998</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>924.44100000000003</v>
+      </c>
+      <c r="O66">
+        <v>3844.1610000000001</v>
+      </c>
+      <c r="P66">
+        <v>2341.5650000000001</v>
+      </c>
+      <c r="Q66">
+        <v>271.79000000000002</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>15700</v>
+      </c>
+      <c r="T66">
+        <v>3256.5129999999999</v>
+      </c>
+      <c r="U66">
+        <v>717.25900000000001</v>
+      </c>
+      <c r="V66">
+        <v>247.31800000000001</v>
+      </c>
+      <c r="W66">
+        <v>-20.562000000000001</v>
+      </c>
+      <c r="X66">
+        <v>98.441999999999993</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>109.108</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>138.92599999999999</v>
+      </c>
+      <c r="D67">
+        <v>1007.682</v>
+      </c>
+      <c r="E67">
+        <v>603.9</v>
+      </c>
+      <c r="F67">
+        <v>340.28</v>
+      </c>
+      <c r="G67">
+        <v>1787.443</v>
+      </c>
+      <c r="H67">
+        <v>7298.81</v>
+      </c>
+      <c r="I67">
+        <v>382.80500000000001</v>
+      </c>
+      <c r="J67">
+        <v>2076.5770000000002</v>
+      </c>
+      <c r="K67">
+        <v>58.192</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1016.798</v>
+      </c>
+      <c r="O67">
+        <v>3894.5749999999998</v>
+      </c>
+      <c r="P67">
+        <v>2414.5279999999998</v>
+      </c>
+      <c r="Q67">
+        <v>-147.02600000000001</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>3404.2350000000001</v>
+      </c>
+      <c r="U67">
+        <v>570.23299999999995</v>
+      </c>
+      <c r="V67">
+        <v>142.44399999999999</v>
+      </c>
+      <c r="W67">
+        <v>-20.623000000000001</v>
+      </c>
+      <c r="X67">
+        <v>51.884</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>138.92599999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>150.48099999999999</v>
+      </c>
+      <c r="D68">
+        <v>1064.604</v>
+      </c>
+      <c r="E68">
+        <v>642.26300000000003</v>
+      </c>
+      <c r="F68">
+        <v>362.41300000000001</v>
+      </c>
+      <c r="G68">
+        <v>1789.2729999999999</v>
+      </c>
+      <c r="H68">
+        <v>7535.0129999999999</v>
+      </c>
+      <c r="I68">
+        <v>405.93700000000001</v>
+      </c>
+      <c r="J68">
+        <v>2128.8380000000002</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>995.14599999999996</v>
+      </c>
+      <c r="O68">
+        <v>3942.817</v>
+      </c>
+      <c r="P68">
+        <v>2401.3879999999999</v>
+      </c>
+      <c r="Q68">
+        <v>-53.75</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>3592.1959999999999</v>
+      </c>
+      <c r="U68">
+        <v>516.48299999999995</v>
+      </c>
+      <c r="V68">
+        <v>198.964</v>
+      </c>
+      <c r="W68">
+        <v>-20.677</v>
+      </c>
+      <c r="X68">
+        <v>-75.078000000000003</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>150.48099999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>153.53100000000001</v>
+      </c>
+      <c r="D69">
+        <v>1084.799</v>
+      </c>
+      <c r="E69">
+        <v>640.81500000000005</v>
+      </c>
+      <c r="F69">
+        <v>362.67200000000003</v>
+      </c>
+      <c r="G69">
+        <v>2024.4829999999999</v>
+      </c>
+      <c r="H69">
+        <v>7783.3010000000004</v>
+      </c>
+      <c r="I69">
+        <v>409.35700000000003</v>
+      </c>
+      <c r="J69">
+        <v>1920.8789999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1270.3409999999999</v>
+      </c>
+      <c r="O69">
+        <v>4017.1460000000002</v>
+      </c>
+      <c r="P69">
+        <v>2430.4459999999999</v>
+      </c>
+      <c r="Q69">
+        <v>219.93199999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>3766.1550000000002</v>
+      </c>
+      <c r="U69">
+        <v>736.41499999999996</v>
+      </c>
+      <c r="V69">
+        <v>238.98599999999999</v>
+      </c>
+      <c r="W69">
+        <v>-20.702999999999999</v>
+      </c>
+      <c r="X69">
+        <v>-19.795000000000002</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>153.53100000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>238.53200000000001</v>
+      </c>
+      <c r="D70">
+        <v>1143.085</v>
+      </c>
+      <c r="E70">
+        <v>682.17600000000004</v>
+      </c>
+      <c r="F70">
+        <v>390.23500000000001</v>
+      </c>
+      <c r="G70">
+        <v>1934.655</v>
+      </c>
+      <c r="H70">
+        <v>7796.0640000000003</v>
+      </c>
+      <c r="I70">
+        <v>437.32900000000001</v>
+      </c>
+      <c r="J70">
+        <v>1866.1659999999999</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1138.663</v>
+      </c>
+      <c r="O70">
+        <v>3768.431</v>
+      </c>
+      <c r="P70">
+        <v>2174.2890000000002</v>
+      </c>
+      <c r="Q70">
+        <v>-90.114999999999995</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>16900</v>
+      </c>
+      <c r="T70">
+        <v>4027.6329999999998</v>
+      </c>
+      <c r="U70">
+        <v>646.29999999999995</v>
+      </c>
+      <c r="V70">
+        <v>252.86500000000001</v>
+      </c>
+      <c r="W70">
+        <v>-20.731999999999999</v>
+      </c>
+      <c r="X70">
+        <v>-286.18200000000002</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>238.53200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>181.34</v>
+      </c>
+      <c r="D71">
+        <v>1172.6469999999999</v>
+      </c>
+      <c r="E71">
+        <v>684.61699999999996</v>
+      </c>
+      <c r="F71">
+        <v>395.84699999999998</v>
+      </c>
+      <c r="G71">
+        <v>1960.2049999999999</v>
+      </c>
+      <c r="H71">
+        <v>8058.3609999999999</v>
+      </c>
+      <c r="I71">
+        <v>382.31299999999999</v>
+      </c>
+      <c r="J71">
+        <v>1897.633</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1159.923</v>
+      </c>
+      <c r="O71">
+        <v>3853.9639999999999</v>
+      </c>
+      <c r="P71">
+        <v>2205.7020000000002</v>
+      </c>
+      <c r="Q71">
+        <v>-89.524000000000001</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4204.3969999999999</v>
+      </c>
+      <c r="U71">
+        <v>556.77599999999995</v>
+      </c>
+      <c r="V71">
+        <v>177.40199999999999</v>
+      </c>
+      <c r="W71">
+        <v>-32.302</v>
+      </c>
+      <c r="X71">
+        <v>-27.055</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>181.34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>193.86</v>
+      </c>
+      <c r="D72">
+        <v>1208.9349999999999</v>
+      </c>
+      <c r="E72">
+        <v>710.95600000000002</v>
+      </c>
+      <c r="F72">
+        <v>417.68700000000001</v>
+      </c>
+      <c r="G72">
+        <v>2018.126</v>
+      </c>
+      <c r="H72">
+        <v>8152.4520000000002</v>
+      </c>
+      <c r="I72">
+        <v>394.28300000000002</v>
+      </c>
+      <c r="J72">
+        <v>1838.2239999999999</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1182.5170000000001</v>
+      </c>
+      <c r="O72">
+        <v>3814.3560000000002</v>
+      </c>
+      <c r="P72">
+        <v>2145.8850000000002</v>
+      </c>
+      <c r="Q72">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4338.0959999999995</v>
+      </c>
+      <c r="U72">
+        <v>557.69299999999998</v>
+      </c>
+      <c r="V72">
+        <v>203.14</v>
+      </c>
+      <c r="W72">
+        <v>-32.350999999999999</v>
+      </c>
+      <c r="X72">
+        <v>-28.492999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>193.86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>191.21299999999999</v>
+      </c>
+      <c r="D73">
+        <v>1192.962</v>
+      </c>
+      <c r="E73">
+        <v>714.92899999999997</v>
+      </c>
+      <c r="F73">
+        <v>409.96800000000002</v>
+      </c>
+      <c r="G73">
+        <v>1998.615</v>
+      </c>
+      <c r="H73">
+        <v>8108.0429999999997</v>
+      </c>
+      <c r="I73">
+        <v>389.13</v>
+      </c>
+      <c r="J73">
+        <v>1832.547</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>969.90099999999995</v>
+      </c>
+      <c r="O73">
+        <v>3596.134</v>
+      </c>
+      <c r="P73">
+        <v>1901.269</v>
+      </c>
+      <c r="Q73">
+        <v>-38.972000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4511.9089999999997</v>
+      </c>
+      <c r="U73">
+        <v>518.721</v>
+      </c>
+      <c r="V73">
+        <v>248.81299999999999</v>
+      </c>
+      <c r="W73">
+        <v>-32.374000000000002</v>
+      </c>
+      <c r="X73">
+        <v>-261.68</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>191.21299999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>211.52</v>
+      </c>
+      <c r="D74">
+        <v>1271.328</v>
+      </c>
+      <c r="E74">
+        <v>791.10500000000002</v>
+      </c>
+      <c r="F74">
+        <v>436.06</v>
+      </c>
+      <c r="G74">
+        <v>1836.144</v>
+      </c>
+      <c r="H74">
+        <v>8662.2880000000005</v>
+      </c>
+      <c r="I74">
+        <v>399.57100000000003</v>
+      </c>
+      <c r="J74">
+        <v>2273.837</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1258.704</v>
+      </c>
+      <c r="O74">
+        <v>4420.366</v>
+      </c>
+      <c r="P74">
+        <v>2632.7130000000002</v>
+      </c>
+      <c r="Q74">
+        <v>-164.74600000000001</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>18200</v>
+      </c>
+      <c r="T74">
+        <v>4241.9219999999996</v>
+      </c>
+      <c r="U74">
+        <v>353.97500000000002</v>
+      </c>
+      <c r="V74">
+        <v>296.16300000000001</v>
+      </c>
+      <c r="W74">
+        <v>-31.884</v>
+      </c>
+      <c r="X74">
+        <v>330.26799999999997</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>211.52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>204.268</v>
+      </c>
+      <c r="D75">
+        <v>1287.691</v>
+      </c>
+      <c r="E75">
+        <v>839.47900000000004</v>
+      </c>
+      <c r="F75">
+        <v>436.38400000000001</v>
+      </c>
+      <c r="G75">
+        <v>1924.644</v>
+      </c>
+      <c r="H75">
+        <v>8891.4830000000002</v>
+      </c>
+      <c r="I75">
+        <v>405.64800000000002</v>
+      </c>
+      <c r="J75">
+        <v>2368.1970000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>-256.286</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1007.228</v>
+      </c>
+      <c r="O75">
+        <v>4434.8620000000001</v>
+      </c>
+      <c r="P75">
+        <v>2660.9270000000001</v>
+      </c>
+      <c r="Q75">
+        <v>14.09</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4456.6210000000001</v>
+      </c>
+      <c r="U75">
+        <v>368.065</v>
+      </c>
+      <c r="V75">
+        <v>196.25700000000001</v>
+      </c>
+      <c r="W75">
+        <v>-31.765999999999998</v>
+      </c>
+      <c r="X75">
+        <v>-165.86500000000001</v>
+      </c>
+      <c r="Y75">
+        <v>146.93600000000001</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>204.268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>215.50299999999999</v>
+      </c>
+      <c r="D76">
+        <v>1289.412</v>
+      </c>
+      <c r="E76">
+        <v>839.58500000000004</v>
+      </c>
+      <c r="F76">
+        <v>451.25900000000001</v>
+      </c>
+      <c r="G76">
+        <v>2127.1529999999998</v>
+      </c>
+      <c r="H76">
+        <v>9069.6020000000008</v>
+      </c>
+      <c r="I76">
+        <v>390.44299999999998</v>
+      </c>
+      <c r="J76">
+        <v>2368.69</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>978.55799999999999</v>
+      </c>
+      <c r="O76">
+        <v>4402.8209999999999</v>
+      </c>
+      <c r="P76">
+        <v>2656.1410000000001</v>
+      </c>
+      <c r="Q76">
+        <v>199.84700000000001</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>4666.7809999999999</v>
+      </c>
+      <c r="U76">
+        <v>567.91200000000003</v>
+      </c>
+      <c r="V76">
+        <v>246.321</v>
+      </c>
+      <c r="W76">
+        <v>-31.849</v>
+      </c>
+      <c r="X76">
+        <v>-25.657</v>
+      </c>
+      <c r="Y76">
+        <v>147.34399999999999</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>215.50299999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>220.749</v>
+      </c>
+      <c r="D77">
+        <v>1276.633</v>
+      </c>
+      <c r="E77">
+        <v>839.971</v>
+      </c>
+      <c r="F77">
+        <v>453.37099999999998</v>
+      </c>
+      <c r="G77">
+        <v>2272.1840000000002</v>
+      </c>
+      <c r="H77">
+        <v>9219.7090000000007</v>
+      </c>
+      <c r="I77">
+        <v>381.94499999999999</v>
+      </c>
+      <c r="J77">
+        <v>2229.252</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1110.519</v>
+      </c>
+      <c r="O77">
+        <v>4353.7439999999997</v>
+      </c>
+      <c r="P77">
+        <v>2609.2020000000002</v>
+      </c>
+      <c r="Q77">
+        <v>167.464</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>4865.9650000000001</v>
+      </c>
+      <c r="U77">
+        <v>735.37599999999998</v>
+      </c>
+      <c r="V77">
+        <v>329.63600000000002</v>
+      </c>
+      <c r="W77">
+        <v>-31.882999999999999</v>
+      </c>
+      <c r="X77">
+        <v>-16.404</v>
+      </c>
+      <c r="Y77">
+        <v>139.595</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>220.749</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>220.77699999999999</v>
+      </c>
+      <c r="D78">
+        <v>1304.8209999999999</v>
+      </c>
+      <c r="E78">
+        <v>817.79899999999998</v>
+      </c>
+      <c r="F78">
+        <v>446.64600000000002</v>
+      </c>
+      <c r="G78">
+        <v>2025.771</v>
+      </c>
+      <c r="H78">
+        <v>9844.5589999999993</v>
+      </c>
+      <c r="I78">
+        <v>377.21899999999999</v>
+      </c>
+      <c r="J78">
+        <v>2271.2919999999999</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1425.8579999999999</v>
+      </c>
+      <c r="O78">
+        <v>4729.067</v>
+      </c>
+      <c r="P78">
+        <v>2954.386</v>
+      </c>
+      <c r="Q78">
+        <v>-342.346</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>18100</v>
+      </c>
+      <c r="T78">
+        <v>5115.4920000000002</v>
+      </c>
+      <c r="U78">
+        <v>393.03</v>
+      </c>
+      <c r="V78">
+        <v>342.20800000000003</v>
+      </c>
+      <c r="W78">
+        <v>-31.998000000000001</v>
+      </c>
+      <c r="X78">
+        <v>280.839</v>
+      </c>
+      <c r="Y78">
+        <v>142.62</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>220.77699999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>280.61599999999999</v>
+      </c>
+      <c r="D79">
+        <v>1202.2180000000001</v>
+      </c>
+      <c r="E79">
+        <v>792.99099999999999</v>
+      </c>
+      <c r="F79">
+        <v>421.27100000000002</v>
+      </c>
+      <c r="G79">
+        <v>2774.491</v>
+      </c>
+      <c r="H79">
+        <v>10601.946</v>
+      </c>
+      <c r="I79">
+        <v>373.9</v>
+      </c>
+      <c r="J79">
+        <v>2741.7979999999998</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1477.671</v>
+      </c>
+      <c r="O79">
+        <v>5275.9430000000002</v>
+      </c>
+      <c r="P79">
+        <v>3426.951</v>
+      </c>
+      <c r="Q79">
+        <v>860.35199999999998</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>5326.0029999999997</v>
+      </c>
+      <c r="U79">
+        <v>1253.3820000000001</v>
+      </c>
+      <c r="V79">
+        <v>270.75200000000001</v>
+      </c>
+      <c r="W79">
+        <v>-41.164999999999999</v>
+      </c>
+      <c r="X79">
+        <v>486.649</v>
+      </c>
+      <c r="Y79">
+        <v>132.36000000000001</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>280.61599999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>166.21700000000001</v>
+      </c>
+      <c r="D80">
+        <v>1011.922</v>
+      </c>
+      <c r="E80">
+        <v>687.96400000000006</v>
+      </c>
+      <c r="F80">
+        <v>342.72699999999998</v>
+      </c>
+      <c r="G80">
+        <v>2517.1350000000002</v>
+      </c>
+      <c r="H80">
+        <v>10311.172</v>
+      </c>
+      <c r="I80">
+        <v>337.46499999999997</v>
+      </c>
+      <c r="J80">
+        <v>2753.2539999999999</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1017.453</v>
+      </c>
+      <c r="O80">
+        <v>4824.732</v>
+      </c>
+      <c r="P80">
+        <v>3039.1579999999999</v>
+      </c>
+      <c r="Q80">
+        <v>-122.407</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>5486.44</v>
+      </c>
+      <c r="U80">
+        <v>1130.9749999999999</v>
+      </c>
+      <c r="V80">
+        <v>314.61599999999999</v>
+      </c>
+      <c r="W80">
+        <v>-41.234000000000002</v>
+      </c>
+      <c r="X80">
+        <v>-430.25299999999999</v>
+      </c>
+      <c r="Y80">
+        <v>127.354</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>166.21700000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>204.58099999999999</v>
+      </c>
+      <c r="D81">
+        <v>1126.942</v>
+      </c>
+      <c r="E81">
+        <v>682.93</v>
+      </c>
+      <c r="F81">
+        <v>394.23700000000002</v>
+      </c>
+      <c r="G81">
+        <v>2643.018</v>
+      </c>
+      <c r="H81">
+        <v>10433.386</v>
+      </c>
+      <c r="I81">
+        <v>324.83699999999999</v>
+      </c>
+      <c r="J81">
+        <v>2295.81</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1403.4939999999999</v>
+      </c>
+      <c r="O81">
+        <v>4729.1940000000004</v>
+      </c>
+      <c r="P81">
+        <v>2973.3449999999998</v>
+      </c>
+      <c r="Q81">
+        <v>173.863</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>5704.192</v>
+      </c>
+      <c r="U81">
+        <v>1304.838</v>
+      </c>
+      <c r="V81">
+        <v>309.73</v>
+      </c>
+      <c r="W81">
+        <v>-41.290999999999997</v>
+      </c>
+      <c r="X81">
+        <v>-141.114</v>
+      </c>
+      <c r="Y81">
+        <v>129.286</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>204.58099999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>221.02500000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1198.9469999999999</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>666.44299999999998</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>428.97899999999998</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2522.4699999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>10357.483</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>360.37</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2281.4409999999998</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1075.915</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>4408.1369999999997</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>2586.846</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-92.016000000000005</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>16500</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5949.3459999999995</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1212.8219999999999</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>385.88200000000001</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-41.344999999999999</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-454.71800000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>128.173</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>221.02500000000001</v>
       </c>
     </row>
